--- a/data/qualys-light.xlsx
+++ b/data/qualys-light.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>QID</t>
   </si>
@@ -153,22 +153,25 @@
   <si>
     <t>11/02/2022 at 01:03:35 AM (GMT+0100)</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -224,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -247,20 +250,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -581,19 +575,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="32.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="32.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -637,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>38.879</v>
       </c>
@@ -676,7 +670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>520.001</v>
       </c>
@@ -715,7 +709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>354.404</v>
       </c>
@@ -754,7 +748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>710.678</v>
       </c>
@@ -793,7 +787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>240.798</v>
       </c>
@@ -832,635 +826,275 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4"/>
-      <c r="B19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4"/>
-      <c r="B20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4"/>
-      <c r="B21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4"/>
-      <c r="B22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4"/>
-      <c r="B23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4"/>
-      <c r="B24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4"/>
@@ -1469,8 +1103,8 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -1560,7 +1194,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -1575,7 +1209,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -1590,7 +1224,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -1605,7 +1239,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -1695,7 +1329,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="12"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -1710,7 +1344,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="12"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -1725,7 +1359,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="12"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -1740,7 +1374,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="12"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -1755,7 +1389,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="12"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -1860,7 +1494,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="12"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -1875,7 +1509,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="12"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -1890,7 +1524,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="12"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -1905,7 +1539,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="12"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -1920,7 +1554,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="12"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -1935,7 +1569,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="12"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -1950,7 +1584,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="12"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -1980,7 +1614,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="12"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -1995,7 +1629,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="12"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -2010,7 +1644,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="12"/>
+      <c r="H61" s="9"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -2025,7 +1659,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="12"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -2040,7 +1674,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="12"/>
+      <c r="H63" s="9"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -2055,7 +1689,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="12"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -2070,7 +1704,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="12"/>
+      <c r="H65" s="9"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -2085,7 +1719,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="12"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -2100,7 +1734,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="12"/>
+      <c r="H67" s="9"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -2115,7 +1749,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="12"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -2130,7 +1764,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="12"/>
+      <c r="H69" s="9"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -2145,7 +1779,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="12"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -2160,7 +1794,7 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="12"/>
+      <c r="H71" s="9"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -2175,7 +1809,7 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="12"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -2190,7 +1824,7 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="12"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -2205,7 +1839,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="12"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -2220,7 +1854,7 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="12"/>
+      <c r="H75" s="9"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -2235,7 +1869,7 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="12"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -2250,7 +1884,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="12"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -2265,7 +1899,7 @@
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="12"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -2280,7 +1914,7 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="12"/>
+      <c r="H79" s="9"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -2295,7 +1929,7 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="12"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -2310,7 +1944,7 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="12"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -2325,7 +1959,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="12"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -2340,7 +1974,7 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="12"/>
+      <c r="H83" s="9"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
@@ -2355,7 +1989,7 @@
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="12"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
@@ -2370,7 +2004,7 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="12"/>
+      <c r="H85" s="9"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
@@ -2385,7 +2019,7 @@
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="12"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -2400,7 +2034,7 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="12"/>
+      <c r="H87" s="9"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
@@ -2415,7 +2049,7 @@
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="12"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
@@ -2430,7 +2064,7 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="12"/>
+      <c r="H89" s="9"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
@@ -2445,7 +2079,7 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="12"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -2460,7 +2094,7 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="12"/>
+      <c r="H91" s="9"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -2490,7 +2124,7 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="12"/>
+      <c r="H93" s="9"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -2505,7 +2139,7 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="12"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -2520,7 +2154,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="12"/>
+      <c r="H95" s="9"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -2580,7 +2214,7 @@
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="12"/>
+      <c r="H99" s="9"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -2595,7 +2229,7 @@
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="12"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -2625,7 +2259,7 @@
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="12"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -2940,7 +2574,7 @@
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="6"/>
-      <c r="H123" s="12"/>
+      <c r="H123" s="9"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -2955,7 +2589,7 @@
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="6"/>
-      <c r="H124" s="12"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -2970,7 +2604,7 @@
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="12"/>
+      <c r="H125" s="9"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -2985,7 +2619,7 @@
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="12"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -3000,7 +2634,7 @@
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="G127" s="4"/>
-      <c r="H127" s="12"/>
+      <c r="H127" s="9"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -3015,7 +2649,7 @@
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="6"/>
-      <c r="H128" s="12"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -3030,7 +2664,7 @@
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="6"/>
-      <c r="H129" s="12"/>
+      <c r="H129" s="9"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -3045,7 +2679,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="12"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -3060,7 +2694,7 @@
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="12"/>
+      <c r="H131" s="9"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -3075,7 +2709,7 @@
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="6"/>
-      <c r="H132" s="12"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -3090,7 +2724,7 @@
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="G133" s="6"/>
-      <c r="H133" s="12"/>
+      <c r="H133" s="9"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
@@ -3120,7 +2754,7 @@
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
       <c r="G135" s="6"/>
-      <c r="H135" s="12"/>
+      <c r="H135" s="9"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
@@ -3135,7 +2769,7 @@
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="G136" s="6"/>
-      <c r="H136" s="12"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
@@ -3330,7 +2964,7 @@
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
       <c r="G149" s="6"/>
-      <c r="H149" s="12"/>
+      <c r="H149" s="9"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
@@ -3359,8 +2993,8 @@
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
@@ -3374,8 +3008,8 @@
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
@@ -3389,8 +3023,8 @@
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -3405,7 +3039,7 @@
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="6"/>
-      <c r="H154" s="12"/>
+      <c r="H154" s="9"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -3420,7 +3054,7 @@
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="12"/>
+      <c r="H155" s="9"/>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
@@ -3435,7 +3069,7 @@
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="12"/>
+      <c r="H156" s="9"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
@@ -3450,7 +3084,7 @@
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
       <c r="G157" s="6"/>
-      <c r="H157" s="12"/>
+      <c r="H157" s="9"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
@@ -3465,7 +3099,7 @@
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
       <c r="G158" s="6"/>
-      <c r="H158" s="12"/>
+      <c r="H158" s="9"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
@@ -3480,7 +3114,7 @@
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
       <c r="G159" s="6"/>
-      <c r="H159" s="12"/>
+      <c r="H159" s="9"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -3495,7 +3129,7 @@
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
       <c r="G160" s="6"/>
-      <c r="H160" s="12"/>
+      <c r="H160" s="9"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -3510,7 +3144,7 @@
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="12"/>
+      <c r="H161" s="9"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -3585,7 +3219,7 @@
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
       <c r="G166" s="6"/>
-      <c r="H166" s="12"/>
+      <c r="H166" s="9"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
@@ -3600,7 +3234,7 @@
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
       <c r="G167" s="4"/>
-      <c r="H167" s="12"/>
+      <c r="H167" s="9"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
@@ -3645,7 +3279,7 @@
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
       <c r="G170" s="6"/>
-      <c r="H170" s="12"/>
+      <c r="H170" s="9"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
@@ -3660,7 +3294,7 @@
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
       <c r="G171" s="4"/>
-      <c r="H171" s="12"/>
+      <c r="H171" s="9"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
@@ -3675,7 +3309,7 @@
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
       <c r="G172" s="6"/>
-      <c r="H172" s="12"/>
+      <c r="H172" s="9"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
@@ -3690,7 +3324,7 @@
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
       <c r="G173" s="4"/>
-      <c r="H173" s="12"/>
+      <c r="H173" s="9"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
@@ -3705,7 +3339,7 @@
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="12"/>
+      <c r="H174" s="9"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
@@ -3720,7 +3354,7 @@
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="12"/>
+      <c r="H175" s="9"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
@@ -3735,7 +3369,7 @@
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="12"/>
+      <c r="H176" s="9"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
@@ -3765,7 +3399,7 @@
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="12"/>
+      <c r="H178" s="9"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
@@ -3780,7 +3414,7 @@
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
       <c r="G179" s="4"/>
-      <c r="H179" s="12"/>
+      <c r="H179" s="9"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
@@ -3795,7 +3429,7 @@
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
       <c r="G180" s="4"/>
-      <c r="H180" s="12"/>
+      <c r="H180" s="9"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
@@ -3810,7 +3444,7 @@
       <c r="E181" s="7"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
-      <c r="H181" s="12"/>
+      <c r="H181" s="9"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
@@ -3825,7 +3459,7 @@
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
       <c r="G182" s="4"/>
-      <c r="H182" s="12"/>
+      <c r="H182" s="9"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
@@ -3840,7 +3474,7 @@
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
       <c r="G183" s="4"/>
-      <c r="H183" s="12"/>
+      <c r="H183" s="9"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
@@ -3855,7 +3489,7 @@
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
       <c r="G184" s="6"/>
-      <c r="H184" s="12"/>
+      <c r="H184" s="9"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
@@ -3870,7 +3504,7 @@
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="12"/>
+      <c r="H185" s="9"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
@@ -3885,7 +3519,7 @@
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
       <c r="G186" s="6"/>
-      <c r="H186" s="12"/>
+      <c r="H186" s="9"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
@@ -3900,7 +3534,7 @@
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
       <c r="G187" s="6"/>
-      <c r="H187" s="12"/>
+      <c r="H187" s="9"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
@@ -3914,8 +3548,8 @@
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="12"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
@@ -3930,7 +3564,7 @@
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="G189" s="6"/>
-      <c r="H189" s="12"/>
+      <c r="H189" s="9"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
@@ -3960,7 +3594,7 @@
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
       <c r="G191" s="6"/>
-      <c r="H191" s="12"/>
+      <c r="H191" s="9"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
@@ -3975,7 +3609,7 @@
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
       <c r="G192" s="6"/>
-      <c r="H192" s="12"/>
+      <c r="H192" s="9"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
@@ -3990,7 +3624,7 @@
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="G193" s="6"/>
-      <c r="H193" s="12"/>
+      <c r="H193" s="9"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
@@ -4005,7 +3639,7 @@
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
       <c r="G194" s="4"/>
-      <c r="H194" s="12"/>
+      <c r="H194" s="9"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
@@ -4020,7 +3654,7 @@
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
       <c r="G195" s="4"/>
-      <c r="H195" s="12"/>
+      <c r="H195" s="9"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
@@ -4035,7 +3669,7 @@
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
       <c r="G196" s="4"/>
-      <c r="H196" s="12"/>
+      <c r="H196" s="9"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
@@ -4050,7 +3684,7 @@
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
       <c r="G197" s="4"/>
-      <c r="H197" s="12"/>
+      <c r="H197" s="9"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
@@ -4065,7 +3699,7 @@
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
       <c r="G198" s="6"/>
-      <c r="H198" s="12"/>
+      <c r="H198" s="9"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
@@ -4080,7 +3714,7 @@
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
       <c r="G199" s="6"/>
-      <c r="H199" s="12"/>
+      <c r="H199" s="9"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
@@ -4095,7 +3729,7 @@
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
       <c r="G200" s="6"/>
-      <c r="H200" s="12"/>
+      <c r="H200" s="9"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
@@ -4110,7 +3744,7 @@
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
       <c r="G201" s="6"/>
-      <c r="H201" s="12"/>
+      <c r="H201" s="9"/>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
@@ -4125,7 +3759,7 @@
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
       <c r="G202" s="6"/>
-      <c r="H202" s="12"/>
+      <c r="H202" s="9"/>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
@@ -4140,7 +3774,7 @@
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
       <c r="G203" s="6"/>
-      <c r="H203" s="12"/>
+      <c r="H203" s="9"/>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
@@ -4155,7 +3789,7 @@
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
       <c r="G204" s="6"/>
-      <c r="H204" s="12"/>
+      <c r="H204" s="9"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
@@ -4170,7 +3804,7 @@
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
       <c r="G205" s="6"/>
-      <c r="H205" s="12"/>
+      <c r="H205" s="9"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
@@ -4185,7 +3819,7 @@
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
       <c r="G206" s="6"/>
-      <c r="H206" s="12"/>
+      <c r="H206" s="9"/>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
@@ -4215,7 +3849,7 @@
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
       <c r="G208" s="6"/>
-      <c r="H208" s="12"/>
+      <c r="H208" s="9"/>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
@@ -4230,7 +3864,7 @@
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
       <c r="G209" s="6"/>
-      <c r="H209" s="12"/>
+      <c r="H209" s="9"/>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
@@ -4245,7 +3879,7 @@
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
       <c r="G210" s="6"/>
-      <c r="H210" s="12"/>
+      <c r="H210" s="9"/>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
@@ -4260,7 +3894,7 @@
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
       <c r="G211" s="6"/>
-      <c r="H211" s="12"/>
+      <c r="H211" s="9"/>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
@@ -4275,7 +3909,7 @@
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
       <c r="G212" s="6"/>
-      <c r="H212" s="12"/>
+      <c r="H212" s="9"/>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
@@ -4290,7 +3924,7 @@
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
       <c r="G213" s="6"/>
-      <c r="H213" s="12"/>
+      <c r="H213" s="9"/>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
@@ -4305,7 +3939,7 @@
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
       <c r="G214" s="6"/>
-      <c r="H214" s="12"/>
+      <c r="H214" s="9"/>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
@@ -4320,7 +3954,7 @@
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
       <c r="G215" s="6"/>
-      <c r="H215" s="12"/>
+      <c r="H215" s="9"/>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
@@ -4350,7 +3984,7 @@
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
       <c r="G217" s="4"/>
-      <c r="H217" s="12"/>
+      <c r="H217" s="9"/>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
@@ -4365,7 +3999,7 @@
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
       <c r="G218" s="6"/>
-      <c r="H218" s="12"/>
+      <c r="H218" s="9"/>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
@@ -4379,8 +4013,8 @@
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
-      <c r="G219" s="12"/>
-      <c r="H219" s="12"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="9"/>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
@@ -4394,8 +4028,8 @@
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="12"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
@@ -4409,8 +4043,8 @@
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
-      <c r="G221" s="12"/>
-      <c r="H221" s="12"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
@@ -5009,8 +4643,8 @@
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
-      <c r="G261" s="12"/>
-      <c r="H261" s="12"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="9"/>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
       <c r="K261" s="7"/>
@@ -5024,8 +4658,8 @@
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
-      <c r="G262" s="12"/>
-      <c r="H262" s="12"/>
+      <c r="G262" s="9"/>
+      <c r="H262" s="9"/>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
       <c r="K262" s="7"/>
@@ -5039,8 +4673,8 @@
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
-      <c r="G263" s="12"/>
-      <c r="H263" s="12"/>
+      <c r="G263" s="9"/>
+      <c r="H263" s="9"/>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
       <c r="K263" s="7"/>
@@ -5055,7 +4689,7 @@
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
       <c r="G264" s="6"/>
-      <c r="H264" s="12"/>
+      <c r="H264" s="9"/>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
       <c r="K264" s="7"/>
@@ -5070,7 +4704,7 @@
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
       <c r="G265" s="6"/>
-      <c r="H265" s="12"/>
+      <c r="H265" s="9"/>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
       <c r="K265" s="7"/>
@@ -5084,8 +4718,8 @@
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
-      <c r="G266" s="12"/>
-      <c r="H266" s="12"/>
+      <c r="G266" s="9"/>
+      <c r="H266" s="9"/>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
       <c r="K266" s="7"/>
@@ -5100,7 +4734,7 @@
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
       <c r="G267" s="6"/>
-      <c r="H267" s="12"/>
+      <c r="H267" s="9"/>
       <c r="I267" s="7"/>
       <c r="J267" s="7"/>
       <c r="K267" s="7"/>
@@ -5115,7 +4749,7 @@
       <c r="E268" s="7"/>
       <c r="F268" s="7"/>
       <c r="G268" s="6"/>
-      <c r="H268" s="12"/>
+      <c r="H268" s="9"/>
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
       <c r="K268" s="7"/>
@@ -5130,7 +4764,7 @@
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
       <c r="G269" s="6"/>
-      <c r="H269" s="12"/>
+      <c r="H269" s="9"/>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
       <c r="K269" s="7"/>
@@ -5145,7 +4779,7 @@
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
       <c r="G270" s="6"/>
-      <c r="H270" s="12"/>
+      <c r="H270" s="9"/>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
       <c r="K270" s="7"/>
@@ -5160,7 +4794,7 @@
       <c r="E271" s="7"/>
       <c r="F271" s="7"/>
       <c r="G271" s="6"/>
-      <c r="H271" s="12"/>
+      <c r="H271" s="9"/>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
       <c r="K271" s="7"/>
@@ -5175,7 +4809,7 @@
       <c r="E272" s="7"/>
       <c r="F272" s="7"/>
       <c r="G272" s="6"/>
-      <c r="H272" s="12"/>
+      <c r="H272" s="9"/>
       <c r="I272" s="7"/>
       <c r="J272" s="7"/>
       <c r="K272" s="7"/>
@@ -5190,7 +4824,7 @@
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
       <c r="G273" s="6"/>
-      <c r="H273" s="12"/>
+      <c r="H273" s="9"/>
       <c r="I273" s="7"/>
       <c r="J273" s="7"/>
       <c r="K273" s="7"/>
@@ -5205,7 +4839,7 @@
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
       <c r="G274" s="6"/>
-      <c r="H274" s="12"/>
+      <c r="H274" s="9"/>
       <c r="I274" s="7"/>
       <c r="J274" s="7"/>
       <c r="K274" s="7"/>
@@ -5220,7 +4854,7 @@
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
       <c r="G275" s="6"/>
-      <c r="H275" s="12"/>
+      <c r="H275" s="9"/>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
       <c r="K275" s="7"/>
@@ -5235,7 +4869,7 @@
       <c r="E276" s="7"/>
       <c r="F276" s="7"/>
       <c r="G276" s="6"/>
-      <c r="H276" s="12"/>
+      <c r="H276" s="9"/>
       <c r="I276" s="7"/>
       <c r="J276" s="7"/>
       <c r="K276" s="7"/>
@@ -5250,7 +4884,7 @@
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
       <c r="G277" s="6"/>
-      <c r="H277" s="12"/>
+      <c r="H277" s="9"/>
       <c r="I277" s="7"/>
       <c r="J277" s="7"/>
       <c r="K277" s="7"/>
@@ -5265,7 +4899,7 @@
       <c r="E278" s="7"/>
       <c r="F278" s="7"/>
       <c r="G278" s="6"/>
-      <c r="H278" s="12"/>
+      <c r="H278" s="9"/>
       <c r="I278" s="7"/>
       <c r="J278" s="7"/>
       <c r="K278" s="7"/>
@@ -5279,8 +4913,8 @@
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
       <c r="F279" s="7"/>
-      <c r="G279" s="12"/>
-      <c r="H279" s="12"/>
+      <c r="G279" s="9"/>
+      <c r="H279" s="9"/>
       <c r="I279" s="7"/>
       <c r="J279" s="7"/>
       <c r="K279" s="7"/>
@@ -5294,8 +4928,8 @@
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
-      <c r="G280" s="12"/>
-      <c r="H280" s="12"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="9"/>
       <c r="I280" s="7"/>
       <c r="J280" s="7"/>
       <c r="K280" s="7"/>
@@ -5309,8 +4943,8 @@
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
-      <c r="G281" s="12"/>
-      <c r="H281" s="12"/>
+      <c r="G281" s="9"/>
+      <c r="H281" s="9"/>
       <c r="I281" s="7"/>
       <c r="J281" s="7"/>
       <c r="K281" s="7"/>
@@ -5324,8 +4958,8 @@
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
-      <c r="G282" s="12"/>
-      <c r="H282" s="12"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="9"/>
       <c r="I282" s="7"/>
       <c r="J282" s="7"/>
       <c r="K282" s="7"/>
@@ -5339,8 +4973,8 @@
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
-      <c r="G283" s="12"/>
-      <c r="H283" s="12"/>
+      <c r="G283" s="9"/>
+      <c r="H283" s="9"/>
       <c r="I283" s="7"/>
       <c r="J283" s="7"/>
       <c r="K283" s="7"/>
@@ -5354,8 +4988,8 @@
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
-      <c r="G284" s="12"/>
-      <c r="H284" s="12"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="9"/>
       <c r="I284" s="7"/>
       <c r="J284" s="7"/>
       <c r="K284" s="7"/>
@@ -5369,8 +5003,8 @@
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
       <c r="F285" s="7"/>
-      <c r="G285" s="12"/>
-      <c r="H285" s="12"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="9"/>
       <c r="I285" s="7"/>
       <c r="J285" s="7"/>
       <c r="K285" s="7"/>
@@ -5384,8 +5018,8 @@
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
-      <c r="G286" s="12"/>
-      <c r="H286" s="12"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
       <c r="I286" s="7"/>
       <c r="J286" s="7"/>
       <c r="K286" s="7"/>
@@ -5399,8 +5033,8 @@
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
-      <c r="G287" s="12"/>
-      <c r="H287" s="12"/>
+      <c r="G287" s="9"/>
+      <c r="H287" s="9"/>
       <c r="I287" s="7"/>
       <c r="J287" s="7"/>
       <c r="K287" s="7"/>
@@ -5414,8 +5048,8 @@
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
-      <c r="G288" s="12"/>
-      <c r="H288" s="12"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="9"/>
       <c r="I288" s="7"/>
       <c r="J288" s="7"/>
       <c r="K288" s="7"/>
@@ -5429,8 +5063,8 @@
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
-      <c r="G289" s="12"/>
-      <c r="H289" s="12"/>
+      <c r="G289" s="9"/>
+      <c r="H289" s="9"/>
       <c r="I289" s="7"/>
       <c r="J289" s="7"/>
       <c r="K289" s="7"/>
@@ -5444,8 +5078,8 @@
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
       <c r="F290" s="7"/>
-      <c r="G290" s="12"/>
-      <c r="H290" s="12"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="9"/>
       <c r="I290" s="7"/>
       <c r="J290" s="7"/>
       <c r="K290" s="7"/>
@@ -5459,8 +5093,8 @@
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
       <c r="F291" s="7"/>
-      <c r="G291" s="12"/>
-      <c r="H291" s="12"/>
+      <c r="G291" s="9"/>
+      <c r="H291" s="9"/>
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
       <c r="K291" s="7"/>
@@ -5474,8 +5108,8 @@
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
-      <c r="G292" s="12"/>
-      <c r="H292" s="12"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="9"/>
       <c r="I292" s="7"/>
       <c r="J292" s="7"/>
       <c r="K292" s="7"/>
@@ -5489,8 +5123,8 @@
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
-      <c r="G293" s="12"/>
-      <c r="H293" s="12"/>
+      <c r="G293" s="9"/>
+      <c r="H293" s="9"/>
       <c r="I293" s="7"/>
       <c r="J293" s="7"/>
       <c r="K293" s="7"/>
@@ -5504,8 +5138,8 @@
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
-      <c r="G294" s="12"/>
-      <c r="H294" s="12"/>
+      <c r="G294" s="9"/>
+      <c r="H294" s="9"/>
       <c r="I294" s="7"/>
       <c r="J294" s="7"/>
       <c r="K294" s="7"/>
@@ -5519,8 +5153,8 @@
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
-      <c r="G295" s="12"/>
-      <c r="H295" s="12"/>
+      <c r="G295" s="9"/>
+      <c r="H295" s="9"/>
       <c r="I295" s="7"/>
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
@@ -5534,8 +5168,8 @@
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
-      <c r="G296" s="12"/>
-      <c r="H296" s="12"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="9"/>
       <c r="I296" s="7"/>
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
@@ -5549,8 +5183,8 @@
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
-      <c r="G297" s="12"/>
-      <c r="H297" s="12"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="9"/>
       <c r="I297" s="7"/>
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
@@ -5564,8 +5198,8 @@
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
-      <c r="G298" s="12"/>
-      <c r="H298" s="12"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="9"/>
       <c r="I298" s="7"/>
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
@@ -5579,8 +5213,8 @@
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
-      <c r="G299" s="12"/>
-      <c r="H299" s="12"/>
+      <c r="G299" s="9"/>
+      <c r="H299" s="9"/>
       <c r="I299" s="7"/>
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
@@ -5594,8 +5228,8 @@
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
-      <c r="G300" s="12"/>
-      <c r="H300" s="12"/>
+      <c r="G300" s="9"/>
+      <c r="H300" s="9"/>
       <c r="I300" s="7"/>
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
@@ -5609,8 +5243,8 @@
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
-      <c r="G301" s="12"/>
-      <c r="H301" s="12"/>
+      <c r="G301" s="9"/>
+      <c r="H301" s="9"/>
       <c r="I301" s="7"/>
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
@@ -5624,8 +5258,8 @@
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
-      <c r="G302" s="12"/>
-      <c r="H302" s="12"/>
+      <c r="G302" s="9"/>
+      <c r="H302" s="9"/>
       <c r="I302" s="7"/>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
@@ -5639,8 +5273,8 @@
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
-      <c r="G303" s="12"/>
-      <c r="H303" s="12"/>
+      <c r="G303" s="9"/>
+      <c r="H303" s="9"/>
       <c r="I303" s="7"/>
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
@@ -5654,8 +5288,8 @@
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
-      <c r="G304" s="12"/>
-      <c r="H304" s="12"/>
+      <c r="G304" s="9"/>
+      <c r="H304" s="9"/>
       <c r="I304" s="7"/>
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
@@ -5669,8 +5303,8 @@
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
-      <c r="G305" s="12"/>
-      <c r="H305" s="12"/>
+      <c r="G305" s="9"/>
+      <c r="H305" s="9"/>
       <c r="I305" s="7"/>
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
@@ -5684,8 +5318,8 @@
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
-      <c r="G306" s="12"/>
-      <c r="H306" s="12"/>
+      <c r="G306" s="9"/>
+      <c r="H306" s="9"/>
       <c r="I306" s="7"/>
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
@@ -5699,8 +5333,8 @@
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
-      <c r="G307" s="12"/>
-      <c r="H307" s="12"/>
+      <c r="G307" s="9"/>
+      <c r="H307" s="9"/>
       <c r="I307" s="7"/>
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
@@ -5714,8 +5348,8 @@
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
-      <c r="G308" s="12"/>
-      <c r="H308" s="12"/>
+      <c r="G308" s="9"/>
+      <c r="H308" s="9"/>
       <c r="I308" s="7"/>
       <c r="J308" s="7"/>
       <c r="K308" s="7"/>
@@ -5729,8 +5363,8 @@
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
-      <c r="G309" s="12"/>
-      <c r="H309" s="12"/>
+      <c r="G309" s="9"/>
+      <c r="H309" s="9"/>
       <c r="I309" s="7"/>
       <c r="J309" s="7"/>
       <c r="K309" s="7"/>
@@ -5744,8 +5378,8 @@
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
-      <c r="G310" s="12"/>
-      <c r="H310" s="12"/>
+      <c r="G310" s="9"/>
+      <c r="H310" s="9"/>
       <c r="I310" s="7"/>
       <c r="J310" s="7"/>
       <c r="K310" s="7"/>
@@ -5759,8 +5393,8 @@
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
-      <c r="G311" s="12"/>
-      <c r="H311" s="12"/>
+      <c r="G311" s="9"/>
+      <c r="H311" s="9"/>
       <c r="I311" s="7"/>
       <c r="J311" s="7"/>
       <c r="K311" s="7"/>
@@ -5774,8 +5408,8 @@
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
-      <c r="G312" s="12"/>
-      <c r="H312" s="12"/>
+      <c r="G312" s="9"/>
+      <c r="H312" s="9"/>
       <c r="I312" s="7"/>
       <c r="J312" s="7"/>
       <c r="K312" s="7"/>
@@ -5789,8 +5423,8 @@
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
-      <c r="G313" s="12"/>
-      <c r="H313" s="12"/>
+      <c r="G313" s="9"/>
+      <c r="H313" s="9"/>
       <c r="I313" s="7"/>
       <c r="J313" s="7"/>
       <c r="K313" s="7"/>
@@ -5804,8 +5438,8 @@
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
       <c r="F314" s="7"/>
-      <c r="G314" s="12"/>
-      <c r="H314" s="12"/>
+      <c r="G314" s="9"/>
+      <c r="H314" s="9"/>
       <c r="I314" s="7"/>
       <c r="J314" s="7"/>
       <c r="K314" s="7"/>
@@ -5819,8 +5453,8 @@
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
-      <c r="G315" s="12"/>
-      <c r="H315" s="12"/>
+      <c r="G315" s="9"/>
+      <c r="H315" s="9"/>
       <c r="I315" s="7"/>
       <c r="J315" s="7"/>
       <c r="K315" s="7"/>
@@ -5834,8 +5468,8 @@
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
-      <c r="G316" s="12"/>
-      <c r="H316" s="12"/>
+      <c r="G316" s="9"/>
+      <c r="H316" s="9"/>
       <c r="I316" s="7"/>
       <c r="J316" s="7"/>
       <c r="K316" s="7"/>
@@ -5849,8 +5483,8 @@
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
-      <c r="G317" s="12"/>
-      <c r="H317" s="12"/>
+      <c r="G317" s="9"/>
+      <c r="H317" s="9"/>
       <c r="I317" s="7"/>
       <c r="J317" s="7"/>
       <c r="K317" s="7"/>
@@ -5864,8 +5498,8 @@
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
-      <c r="G318" s="12"/>
-      <c r="H318" s="12"/>
+      <c r="G318" s="9"/>
+      <c r="H318" s="9"/>
       <c r="I318" s="7"/>
       <c r="J318" s="7"/>
       <c r="K318" s="7"/>
@@ -5879,8 +5513,8 @@
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
-      <c r="G319" s="12"/>
-      <c r="H319" s="12"/>
+      <c r="G319" s="9"/>
+      <c r="H319" s="9"/>
       <c r="I319" s="7"/>
       <c r="J319" s="7"/>
       <c r="K319" s="7"/>
@@ -5894,8 +5528,8 @@
       <c r="D320" s="7"/>
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
-      <c r="G320" s="12"/>
-      <c r="H320" s="12"/>
+      <c r="G320" s="9"/>
+      <c r="H320" s="9"/>
       <c r="I320" s="7"/>
       <c r="J320" s="7"/>
       <c r="K320" s="7"/>
@@ -5909,8 +5543,8 @@
       <c r="D321" s="7"/>
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
-      <c r="G321" s="12"/>
-      <c r="H321" s="12"/>
+      <c r="G321" s="9"/>
+      <c r="H321" s="9"/>
       <c r="I321" s="7"/>
       <c r="J321" s="7"/>
       <c r="K321" s="7"/>
@@ -5924,8 +5558,8 @@
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
-      <c r="G322" s="12"/>
-      <c r="H322" s="12"/>
+      <c r="G322" s="9"/>
+      <c r="H322" s="9"/>
       <c r="I322" s="7"/>
       <c r="J322" s="7"/>
       <c r="K322" s="7"/>
@@ -5939,8 +5573,8 @@
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
-      <c r="G323" s="12"/>
-      <c r="H323" s="12"/>
+      <c r="G323" s="9"/>
+      <c r="H323" s="9"/>
       <c r="I323" s="7"/>
       <c r="J323" s="7"/>
       <c r="K323" s="7"/>
@@ -5954,8 +5588,8 @@
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
-      <c r="G324" s="12"/>
-      <c r="H324" s="12"/>
+      <c r="G324" s="9"/>
+      <c r="H324" s="9"/>
       <c r="I324" s="7"/>
       <c r="J324" s="7"/>
       <c r="K324" s="7"/>
@@ -5969,8 +5603,8 @@
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
-      <c r="G325" s="12"/>
-      <c r="H325" s="12"/>
+      <c r="G325" s="9"/>
+      <c r="H325" s="9"/>
       <c r="I325" s="7"/>
       <c r="J325" s="7"/>
       <c r="K325" s="7"/>
@@ -5984,8 +5618,8 @@
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
-      <c r="G326" s="12"/>
-      <c r="H326" s="12"/>
+      <c r="G326" s="9"/>
+      <c r="H326" s="9"/>
       <c r="I326" s="7"/>
       <c r="J326" s="7"/>
       <c r="K326" s="7"/>
@@ -5999,8 +5633,8 @@
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
-      <c r="G327" s="12"/>
-      <c r="H327" s="12"/>
+      <c r="G327" s="9"/>
+      <c r="H327" s="9"/>
       <c r="I327" s="7"/>
       <c r="J327" s="7"/>
       <c r="K327" s="7"/>
@@ -6014,8 +5648,8 @@
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
-      <c r="G328" s="12"/>
-      <c r="H328" s="12"/>
+      <c r="G328" s="9"/>
+      <c r="H328" s="9"/>
       <c r="I328" s="7"/>
       <c r="J328" s="7"/>
       <c r="K328" s="7"/>
@@ -6029,8 +5663,8 @@
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
-      <c r="G329" s="12"/>
-      <c r="H329" s="12"/>
+      <c r="G329" s="9"/>
+      <c r="H329" s="9"/>
       <c r="I329" s="7"/>
       <c r="J329" s="7"/>
       <c r="K329" s="7"/>
@@ -6044,8 +5678,8 @@
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
-      <c r="G330" s="12"/>
-      <c r="H330" s="12"/>
+      <c r="G330" s="9"/>
+      <c r="H330" s="9"/>
       <c r="I330" s="7"/>
       <c r="J330" s="7"/>
       <c r="K330" s="7"/>
@@ -6059,8 +5693,8 @@
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
-      <c r="G331" s="12"/>
-      <c r="H331" s="12"/>
+      <c r="G331" s="9"/>
+      <c r="H331" s="9"/>
       <c r="I331" s="7"/>
       <c r="J331" s="7"/>
       <c r="K331" s="7"/>
@@ -6074,8 +5708,8 @@
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
-      <c r="G332" s="12"/>
-      <c r="H332" s="12"/>
+      <c r="G332" s="9"/>
+      <c r="H332" s="9"/>
       <c r="I332" s="7"/>
       <c r="J332" s="7"/>
       <c r="K332" s="7"/>
@@ -6089,8 +5723,8 @@
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
-      <c r="G333" s="12"/>
-      <c r="H333" s="12"/>
+      <c r="G333" s="9"/>
+      <c r="H333" s="9"/>
       <c r="I333" s="7"/>
       <c r="J333" s="7"/>
       <c r="K333" s="7"/>
@@ -6104,8 +5738,8 @@
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
-      <c r="G334" s="12"/>
-      <c r="H334" s="12"/>
+      <c r="G334" s="9"/>
+      <c r="H334" s="9"/>
       <c r="I334" s="7"/>
       <c r="J334" s="7"/>
       <c r="K334" s="7"/>
@@ -6119,8 +5753,8 @@
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
-      <c r="G335" s="12"/>
-      <c r="H335" s="12"/>
+      <c r="G335" s="9"/>
+      <c r="H335" s="9"/>
       <c r="I335" s="7"/>
       <c r="J335" s="7"/>
       <c r="K335" s="7"/>
@@ -6134,8 +5768,8 @@
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
-      <c r="G336" s="12"/>
-      <c r="H336" s="12"/>
+      <c r="G336" s="9"/>
+      <c r="H336" s="9"/>
       <c r="I336" s="7"/>
       <c r="J336" s="7"/>
       <c r="K336" s="7"/>
@@ -6149,8 +5783,8 @@
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
-      <c r="G337" s="12"/>
-      <c r="H337" s="12"/>
+      <c r="G337" s="9"/>
+      <c r="H337" s="9"/>
       <c r="I337" s="7"/>
       <c r="J337" s="7"/>
       <c r="K337" s="7"/>
@@ -6164,8 +5798,8 @@
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
-      <c r="G338" s="12"/>
-      <c r="H338" s="12"/>
+      <c r="G338" s="9"/>
+      <c r="H338" s="9"/>
       <c r="I338" s="7"/>
       <c r="J338" s="7"/>
       <c r="K338" s="7"/>
@@ -6179,8 +5813,8 @@
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
-      <c r="G339" s="12"/>
-      <c r="H339" s="12"/>
+      <c r="G339" s="9"/>
+      <c r="H339" s="9"/>
       <c r="I339" s="7"/>
       <c r="J339" s="7"/>
       <c r="K339" s="7"/>
@@ -6194,8 +5828,8 @@
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
-      <c r="G340" s="12"/>
-      <c r="H340" s="12"/>
+      <c r="G340" s="9"/>
+      <c r="H340" s="9"/>
       <c r="I340" s="7"/>
       <c r="J340" s="7"/>
       <c r="K340" s="7"/>
@@ -6209,8 +5843,8 @@
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
-      <c r="G341" s="12"/>
-      <c r="H341" s="12"/>
+      <c r="G341" s="9"/>
+      <c r="H341" s="9"/>
       <c r="I341" s="7"/>
       <c r="J341" s="7"/>
       <c r="K341" s="7"/>
@@ -6224,8 +5858,8 @@
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
-      <c r="G342" s="12"/>
-      <c r="H342" s="12"/>
+      <c r="G342" s="9"/>
+      <c r="H342" s="9"/>
       <c r="I342" s="7"/>
       <c r="J342" s="7"/>
       <c r="K342" s="7"/>
@@ -6239,8 +5873,8 @@
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
-      <c r="G343" s="12"/>
-      <c r="H343" s="12"/>
+      <c r="G343" s="9"/>
+      <c r="H343" s="9"/>
       <c r="I343" s="7"/>
       <c r="J343" s="7"/>
       <c r="K343" s="7"/>
@@ -6254,8 +5888,8 @@
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
-      <c r="G344" s="12"/>
-      <c r="H344" s="12"/>
+      <c r="G344" s="9"/>
+      <c r="H344" s="9"/>
       <c r="I344" s="7"/>
       <c r="J344" s="7"/>
       <c r="K344" s="7"/>
@@ -6269,8 +5903,8 @@
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
-      <c r="G345" s="12"/>
-      <c r="H345" s="12"/>
+      <c r="G345" s="9"/>
+      <c r="H345" s="9"/>
       <c r="I345" s="7"/>
       <c r="J345" s="7"/>
       <c r="K345" s="7"/>
@@ -6284,8 +5918,8 @@
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
-      <c r="G346" s="12"/>
-      <c r="H346" s="12"/>
+      <c r="G346" s="9"/>
+      <c r="H346" s="9"/>
       <c r="I346" s="7"/>
       <c r="J346" s="7"/>
       <c r="K346" s="7"/>
@@ -6299,8 +5933,8 @@
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
-      <c r="G347" s="12"/>
-      <c r="H347" s="12"/>
+      <c r="G347" s="9"/>
+      <c r="H347" s="9"/>
       <c r="I347" s="7"/>
       <c r="J347" s="7"/>
       <c r="K347" s="7"/>
@@ -6314,8 +5948,8 @@
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
-      <c r="G348" s="12"/>
-      <c r="H348" s="12"/>
+      <c r="G348" s="9"/>
+      <c r="H348" s="9"/>
       <c r="I348" s="7"/>
       <c r="J348" s="7"/>
       <c r="K348" s="7"/>
@@ -6329,8 +5963,8 @@
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
-      <c r="G349" s="12"/>
-      <c r="H349" s="12"/>
+      <c r="G349" s="9"/>
+      <c r="H349" s="9"/>
       <c r="I349" s="7"/>
       <c r="J349" s="7"/>
       <c r="K349" s="7"/>
@@ -6344,8 +5978,8 @@
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
-      <c r="G350" s="12"/>
-      <c r="H350" s="12"/>
+      <c r="G350" s="9"/>
+      <c r="H350" s="9"/>
       <c r="I350" s="7"/>
       <c r="J350" s="7"/>
       <c r="K350" s="7"/>
@@ -6359,8 +5993,8 @@
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
-      <c r="G351" s="12"/>
-      <c r="H351" s="12"/>
+      <c r="G351" s="9"/>
+      <c r="H351" s="9"/>
       <c r="I351" s="7"/>
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
@@ -6374,8 +6008,8 @@
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
-      <c r="G352" s="12"/>
-      <c r="H352" s="12"/>
+      <c r="G352" s="9"/>
+      <c r="H352" s="9"/>
       <c r="I352" s="7"/>
       <c r="J352" s="7"/>
       <c r="K352" s="7"/>
@@ -6389,8 +6023,8 @@
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
-      <c r="G353" s="12"/>
-      <c r="H353" s="12"/>
+      <c r="G353" s="9"/>
+      <c r="H353" s="9"/>
       <c r="I353" s="7"/>
       <c r="J353" s="7"/>
       <c r="K353" s="7"/>
@@ -6404,8 +6038,8 @@
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
       <c r="F354" s="7"/>
-      <c r="G354" s="12"/>
-      <c r="H354" s="12"/>
+      <c r="G354" s="9"/>
+      <c r="H354" s="9"/>
       <c r="I354" s="7"/>
       <c r="J354" s="7"/>
       <c r="K354" s="7"/>
@@ -6419,8 +6053,8 @@
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
-      <c r="G355" s="12"/>
-      <c r="H355" s="12"/>
+      <c r="G355" s="9"/>
+      <c r="H355" s="9"/>
       <c r="I355" s="7"/>
       <c r="J355" s="7"/>
       <c r="K355" s="7"/>
@@ -6434,8 +6068,8 @@
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
-      <c r="G356" s="12"/>
-      <c r="H356" s="12"/>
+      <c r="G356" s="9"/>
+      <c r="H356" s="9"/>
       <c r="I356" s="7"/>
       <c r="J356" s="7"/>
       <c r="K356" s="7"/>
@@ -6449,8 +6083,8 @@
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
-      <c r="G357" s="12"/>
-      <c r="H357" s="12"/>
+      <c r="G357" s="9"/>
+      <c r="H357" s="9"/>
       <c r="I357" s="7"/>
       <c r="J357" s="7"/>
       <c r="K357" s="7"/>
@@ -6464,8 +6098,8 @@
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
-      <c r="G358" s="12"/>
-      <c r="H358" s="12"/>
+      <c r="G358" s="9"/>
+      <c r="H358" s="9"/>
       <c r="I358" s="7"/>
       <c r="J358" s="7"/>
       <c r="K358" s="7"/>
@@ -6479,8 +6113,8 @@
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
-      <c r="G359" s="12"/>
-      <c r="H359" s="12"/>
+      <c r="G359" s="9"/>
+      <c r="H359" s="9"/>
       <c r="I359" s="7"/>
       <c r="J359" s="7"/>
       <c r="K359" s="7"/>
@@ -6495,7 +6129,7 @@
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="6"/>
-      <c r="H360" s="12"/>
+      <c r="H360" s="9"/>
       <c r="I360" s="7"/>
       <c r="J360" s="7"/>
       <c r="K360" s="7"/>
@@ -6510,7 +6144,7 @@
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
       <c r="G361" s="6"/>
-      <c r="H361" s="12"/>
+      <c r="H361" s="9"/>
       <c r="I361" s="7"/>
       <c r="J361" s="7"/>
       <c r="K361" s="7"/>
@@ -6539,8 +6173,8 @@
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
-      <c r="G363" s="12"/>
-      <c r="H363" s="12"/>
+      <c r="G363" s="9"/>
+      <c r="H363" s="9"/>
       <c r="I363" s="7"/>
       <c r="J363" s="7"/>
       <c r="K363" s="7"/>
@@ -6585,7 +6219,7 @@
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
       <c r="G366" s="4"/>
-      <c r="H366" s="12"/>
+      <c r="H366" s="9"/>
       <c r="I366" s="7"/>
       <c r="J366" s="7"/>
       <c r="K366" s="7"/>
@@ -6600,7 +6234,7 @@
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
       <c r="G367" s="6"/>
-      <c r="H367" s="12"/>
+      <c r="H367" s="9"/>
       <c r="I367" s="7"/>
       <c r="J367" s="7"/>
       <c r="K367" s="7"/>
@@ -6615,7 +6249,7 @@
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
       <c r="G368" s="6"/>
-      <c r="H368" s="12"/>
+      <c r="H368" s="9"/>
       <c r="I368" s="7"/>
       <c r="J368" s="7"/>
       <c r="K368" s="7"/>
@@ -6630,7 +6264,7 @@
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
       <c r="G369" s="6"/>
-      <c r="H369" s="12"/>
+      <c r="H369" s="9"/>
       <c r="I369" s="7"/>
       <c r="J369" s="7"/>
       <c r="K369" s="7"/>
@@ -6644,8 +6278,8 @@
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
-      <c r="G370" s="12"/>
-      <c r="H370" s="12"/>
+      <c r="G370" s="9"/>
+      <c r="H370" s="9"/>
       <c r="I370" s="7"/>
       <c r="J370" s="7"/>
       <c r="K370" s="7"/>
@@ -6659,8 +6293,8 @@
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
-      <c r="G371" s="12"/>
-      <c r="H371" s="12"/>
+      <c r="G371" s="9"/>
+      <c r="H371" s="9"/>
       <c r="I371" s="7"/>
       <c r="J371" s="7"/>
       <c r="K371" s="7"/>
@@ -6674,8 +6308,8 @@
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
-      <c r="G372" s="12"/>
-      <c r="H372" s="12"/>
+      <c r="G372" s="9"/>
+      <c r="H372" s="9"/>
       <c r="I372" s="7"/>
       <c r="J372" s="7"/>
       <c r="K372" s="7"/>
@@ -6690,7 +6324,7 @@
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
       <c r="G373" s="6"/>
-      <c r="H373" s="12"/>
+      <c r="H373" s="9"/>
       <c r="I373" s="7"/>
       <c r="J373" s="7"/>
       <c r="K373" s="7"/>
@@ -6705,7 +6339,7 @@
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
       <c r="G374" s="6"/>
-      <c r="H374" s="12"/>
+      <c r="H374" s="9"/>
       <c r="I374" s="7"/>
       <c r="J374" s="7"/>
       <c r="K374" s="7"/>
@@ -6720,7 +6354,7 @@
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="4"/>
-      <c r="H375" s="12"/>
+      <c r="H375" s="9"/>
       <c r="I375" s="7"/>
       <c r="J375" s="7"/>
       <c r="K375" s="7"/>
@@ -6734,8 +6368,8 @@
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
-      <c r="G376" s="12"/>
-      <c r="H376" s="12"/>
+      <c r="G376" s="9"/>
+      <c r="H376" s="9"/>
       <c r="I376" s="7"/>
       <c r="J376" s="7"/>
       <c r="K376" s="7"/>
@@ -6749,8 +6383,8 @@
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
-      <c r="G377" s="12"/>
-      <c r="H377" s="12"/>
+      <c r="G377" s="9"/>
+      <c r="H377" s="9"/>
       <c r="I377" s="7"/>
       <c r="J377" s="7"/>
       <c r="K377" s="7"/>
@@ -6765,7 +6399,7 @@
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
       <c r="G378" s="6"/>
-      <c r="H378" s="12"/>
+      <c r="H378" s="9"/>
       <c r="I378" s="7"/>
       <c r="J378" s="7"/>
       <c r="K378" s="7"/>
@@ -6780,7 +6414,7 @@
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
       <c r="G379" s="6"/>
-      <c r="H379" s="12"/>
+      <c r="H379" s="9"/>
       <c r="I379" s="7"/>
       <c r="J379" s="7"/>
       <c r="K379" s="7"/>
@@ -6794,8 +6428,8 @@
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
-      <c r="G380" s="12"/>
-      <c r="H380" s="12"/>
+      <c r="G380" s="9"/>
+      <c r="H380" s="9"/>
       <c r="I380" s="7"/>
       <c r="J380" s="7"/>
       <c r="K380" s="7"/>
@@ -6810,7 +6444,7 @@
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
       <c r="G381" s="4"/>
-      <c r="H381" s="12"/>
+      <c r="H381" s="9"/>
       <c r="I381" s="7"/>
       <c r="J381" s="7"/>
       <c r="K381" s="7"/>
@@ -6824,8 +6458,8 @@
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
-      <c r="G382" s="12"/>
-      <c r="H382" s="12"/>
+      <c r="G382" s="9"/>
+      <c r="H382" s="9"/>
       <c r="I382" s="7"/>
       <c r="J382" s="7"/>
       <c r="K382" s="7"/>
@@ -6839,8 +6473,8 @@
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
-      <c r="G383" s="12"/>
-      <c r="H383" s="12"/>
+      <c r="G383" s="9"/>
+      <c r="H383" s="9"/>
       <c r="I383" s="7"/>
       <c r="J383" s="7"/>
       <c r="K383" s="7"/>
@@ -6854,8 +6488,8 @@
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
-      <c r="G384" s="12"/>
-      <c r="H384" s="12"/>
+      <c r="G384" s="9"/>
+      <c r="H384" s="9"/>
       <c r="I384" s="7"/>
       <c r="J384" s="7"/>
       <c r="K384" s="7"/>
@@ -6869,8 +6503,8 @@
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
-      <c r="G385" s="12"/>
-      <c r="H385" s="12"/>
+      <c r="G385" s="9"/>
+      <c r="H385" s="9"/>
       <c r="I385" s="7"/>
       <c r="J385" s="7"/>
       <c r="K385" s="7"/>
@@ -6884,8 +6518,8 @@
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
-      <c r="G386" s="12"/>
-      <c r="H386" s="12"/>
+      <c r="G386" s="9"/>
+      <c r="H386" s="9"/>
       <c r="I386" s="7"/>
       <c r="J386" s="7"/>
       <c r="K386" s="7"/>
@@ -6899,8 +6533,8 @@
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
-      <c r="G387" s="12"/>
-      <c r="H387" s="12"/>
+      <c r="G387" s="9"/>
+      <c r="H387" s="9"/>
       <c r="I387" s="7"/>
       <c r="J387" s="7"/>
       <c r="K387" s="7"/>
@@ -6915,7 +6549,7 @@
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
       <c r="G388" s="4"/>
-      <c r="H388" s="12"/>
+      <c r="H388" s="9"/>
       <c r="I388" s="7"/>
       <c r="J388" s="7"/>
       <c r="K388" s="7"/>
@@ -6945,7 +6579,7 @@
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
       <c r="G390" s="6"/>
-      <c r="H390" s="12"/>
+      <c r="H390" s="9"/>
       <c r="I390" s="7"/>
       <c r="J390" s="7"/>
       <c r="K390" s="7"/>
@@ -6960,7 +6594,7 @@
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
       <c r="G391" s="6"/>
-      <c r="H391" s="12"/>
+      <c r="H391" s="9"/>
       <c r="I391" s="7"/>
       <c r="J391" s="7"/>
       <c r="K391" s="7"/>
@@ -6975,7 +6609,7 @@
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
       <c r="G392" s="6"/>
-      <c r="H392" s="12"/>
+      <c r="H392" s="9"/>
       <c r="I392" s="7"/>
       <c r="J392" s="7"/>
       <c r="K392" s="7"/>
@@ -6990,7 +6624,7 @@
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
       <c r="G393" s="4"/>
-      <c r="H393" s="12"/>
+      <c r="H393" s="9"/>
       <c r="I393" s="7"/>
       <c r="J393" s="7"/>
       <c r="K393" s="7"/>
@@ -7005,7 +6639,7 @@
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
       <c r="G394" s="6"/>
-      <c r="H394" s="12"/>
+      <c r="H394" s="9"/>
       <c r="I394" s="7"/>
       <c r="J394" s="7"/>
       <c r="K394" s="7"/>
@@ -7020,7 +6654,7 @@
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
       <c r="G395" s="6"/>
-      <c r="H395" s="12"/>
+      <c r="H395" s="9"/>
       <c r="I395" s="7"/>
       <c r="J395" s="7"/>
       <c r="K395" s="7"/>
@@ -7275,7 +6909,7 @@
       <c r="E412" s="7"/>
       <c r="F412" s="7"/>
       <c r="G412" s="6"/>
-      <c r="H412" s="12"/>
+      <c r="H412" s="9"/>
       <c r="I412" s="7"/>
       <c r="J412" s="7"/>
       <c r="K412" s="7"/>
@@ -7290,7 +6924,7 @@
       <c r="E413" s="7"/>
       <c r="F413" s="7"/>
       <c r="G413" s="6"/>
-      <c r="H413" s="12"/>
+      <c r="H413" s="9"/>
       <c r="I413" s="7"/>
       <c r="J413" s="7"/>
       <c r="K413" s="7"/>
@@ -7305,7 +6939,7 @@
       <c r="E414" s="7"/>
       <c r="F414" s="7"/>
       <c r="G414" s="4"/>
-      <c r="H414" s="12"/>
+      <c r="H414" s="9"/>
       <c r="I414" s="7"/>
       <c r="J414" s="7"/>
       <c r="K414" s="7"/>
@@ -7320,7 +6954,7 @@
       <c r="E415" s="7"/>
       <c r="F415" s="7"/>
       <c r="G415" s="4"/>
-      <c r="H415" s="12"/>
+      <c r="H415" s="9"/>
       <c r="I415" s="7"/>
       <c r="J415" s="7"/>
       <c r="K415" s="7"/>
@@ -7335,7 +6969,7 @@
       <c r="E416" s="7"/>
       <c r="F416" s="7"/>
       <c r="G416" s="6"/>
-      <c r="H416" s="12"/>
+      <c r="H416" s="9"/>
       <c r="I416" s="7"/>
       <c r="J416" s="7"/>
       <c r="K416" s="7"/>
@@ -7350,7 +6984,7 @@
       <c r="E417" s="7"/>
       <c r="F417" s="7"/>
       <c r="G417" s="4"/>
-      <c r="H417" s="12"/>
+      <c r="H417" s="9"/>
       <c r="I417" s="7"/>
       <c r="J417" s="7"/>
       <c r="K417" s="7"/>
@@ -7365,7 +6999,7 @@
       <c r="E418" s="7"/>
       <c r="F418" s="7"/>
       <c r="G418" s="6"/>
-      <c r="H418" s="12"/>
+      <c r="H418" s="9"/>
       <c r="I418" s="7"/>
       <c r="J418" s="7"/>
       <c r="K418" s="7"/>
@@ -7380,7 +7014,7 @@
       <c r="E419" s="7"/>
       <c r="F419" s="7"/>
       <c r="G419" s="6"/>
-      <c r="H419" s="12"/>
+      <c r="H419" s="9"/>
       <c r="I419" s="7"/>
       <c r="J419" s="7"/>
       <c r="K419" s="7"/>
@@ -7395,7 +7029,7 @@
       <c r="E420" s="7"/>
       <c r="F420" s="7"/>
       <c r="G420" s="4"/>
-      <c r="H420" s="12"/>
+      <c r="H420" s="9"/>
       <c r="I420" s="7"/>
       <c r="J420" s="7"/>
       <c r="K420" s="7"/>
@@ -7440,7 +7074,7 @@
       <c r="E423" s="7"/>
       <c r="F423" s="7"/>
       <c r="G423" s="6"/>
-      <c r="H423" s="12"/>
+      <c r="H423" s="9"/>
       <c r="I423" s="7"/>
       <c r="J423" s="7"/>
       <c r="K423" s="7"/>
@@ -7500,7 +7134,7 @@
       <c r="E427" s="7"/>
       <c r="F427" s="7"/>
       <c r="G427" s="6"/>
-      <c r="H427" s="12"/>
+      <c r="H427" s="9"/>
       <c r="I427" s="7"/>
       <c r="J427" s="7"/>
       <c r="K427" s="7"/>
@@ -7515,7 +7149,7 @@
       <c r="E428" s="7"/>
       <c r="F428" s="7"/>
       <c r="G428" s="6"/>
-      <c r="H428" s="12"/>
+      <c r="H428" s="9"/>
       <c r="I428" s="7"/>
       <c r="J428" s="7"/>
       <c r="K428" s="7"/>
@@ -7530,7 +7164,7 @@
       <c r="E429" s="7"/>
       <c r="F429" s="7"/>
       <c r="G429" s="4"/>
-      <c r="H429" s="12"/>
+      <c r="H429" s="9"/>
       <c r="I429" s="7"/>
       <c r="J429" s="7"/>
       <c r="K429" s="7"/>
@@ -7545,7 +7179,7 @@
       <c r="E430" s="7"/>
       <c r="F430" s="7"/>
       <c r="G430" s="4"/>
-      <c r="H430" s="12"/>
+      <c r="H430" s="9"/>
       <c r="I430" s="7"/>
       <c r="J430" s="7"/>
       <c r="K430" s="7"/>
@@ -7560,7 +7194,7 @@
       <c r="E431" s="7"/>
       <c r="F431" s="7"/>
       <c r="G431" s="6"/>
-      <c r="H431" s="12"/>
+      <c r="H431" s="9"/>
       <c r="I431" s="7"/>
       <c r="J431" s="7"/>
       <c r="K431" s="7"/>
@@ -7575,7 +7209,7 @@
       <c r="E432" s="7"/>
       <c r="F432" s="7"/>
       <c r="G432" s="6"/>
-      <c r="H432" s="12"/>
+      <c r="H432" s="9"/>
       <c r="I432" s="7"/>
       <c r="J432" s="7"/>
       <c r="K432" s="7"/>
@@ -7590,7 +7224,7 @@
       <c r="E433" s="7"/>
       <c r="F433" s="7"/>
       <c r="G433" s="4"/>
-      <c r="H433" s="12"/>
+      <c r="H433" s="9"/>
       <c r="I433" s="7"/>
       <c r="J433" s="7"/>
       <c r="K433" s="7"/>
@@ -7605,7 +7239,7 @@
       <c r="E434" s="7"/>
       <c r="F434" s="7"/>
       <c r="G434" s="4"/>
-      <c r="H434" s="12"/>
+      <c r="H434" s="9"/>
       <c r="I434" s="7"/>
       <c r="J434" s="7"/>
       <c r="K434" s="7"/>
@@ -7620,7 +7254,7 @@
       <c r="E435" s="7"/>
       <c r="F435" s="7"/>
       <c r="G435" s="6"/>
-      <c r="H435" s="12"/>
+      <c r="H435" s="9"/>
       <c r="I435" s="7"/>
       <c r="J435" s="7"/>
       <c r="K435" s="7"/>
@@ -7635,7 +7269,7 @@
       <c r="E436" s="7"/>
       <c r="F436" s="7"/>
       <c r="G436" s="6"/>
-      <c r="H436" s="12"/>
+      <c r="H436" s="9"/>
       <c r="I436" s="7"/>
       <c r="J436" s="7"/>
       <c r="K436" s="7"/>
@@ -7650,7 +7284,7 @@
       <c r="E437" s="7"/>
       <c r="F437" s="7"/>
       <c r="G437" s="6"/>
-      <c r="H437" s="12"/>
+      <c r="H437" s="9"/>
       <c r="I437" s="7"/>
       <c r="J437" s="7"/>
       <c r="K437" s="7"/>
@@ -7665,7 +7299,7 @@
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
       <c r="G438" s="4"/>
-      <c r="H438" s="12"/>
+      <c r="H438" s="9"/>
       <c r="I438" s="7"/>
       <c r="J438" s="7"/>
       <c r="K438" s="7"/>
@@ -7680,7 +7314,7 @@
       <c r="E439" s="7"/>
       <c r="F439" s="7"/>
       <c r="G439" s="4"/>
-      <c r="H439" s="12"/>
+      <c r="H439" s="9"/>
       <c r="I439" s="7"/>
       <c r="J439" s="7"/>
       <c r="K439" s="7"/>
@@ -7695,7 +7329,7 @@
       <c r="E440" s="7"/>
       <c r="F440" s="7"/>
       <c r="G440" s="6"/>
-      <c r="H440" s="12"/>
+      <c r="H440" s="9"/>
       <c r="I440" s="7"/>
       <c r="J440" s="7"/>
       <c r="K440" s="7"/>
@@ -7710,7 +7344,7 @@
       <c r="E441" s="7"/>
       <c r="F441" s="7"/>
       <c r="G441" s="6"/>
-      <c r="H441" s="12"/>
+      <c r="H441" s="9"/>
       <c r="I441" s="7"/>
       <c r="J441" s="7"/>
       <c r="K441" s="7"/>
@@ -7725,7 +7359,7 @@
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
       <c r="G442" s="6"/>
-      <c r="H442" s="12"/>
+      <c r="H442" s="9"/>
       <c r="I442" s="7"/>
       <c r="J442" s="7"/>
       <c r="K442" s="7"/>
@@ -7740,7 +7374,7 @@
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
       <c r="G443" s="6"/>
-      <c r="H443" s="12"/>
+      <c r="H443" s="9"/>
       <c r="I443" s="7"/>
       <c r="J443" s="7"/>
       <c r="K443" s="7"/>
@@ -7755,7 +7389,7 @@
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
       <c r="G444" s="4"/>
-      <c r="H444" s="12"/>
+      <c r="H444" s="9"/>
       <c r="I444" s="7"/>
       <c r="J444" s="7"/>
       <c r="K444" s="7"/>
@@ -7770,7 +7404,7 @@
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
       <c r="G445" s="4"/>
-      <c r="H445" s="12"/>
+      <c r="H445" s="9"/>
       <c r="I445" s="7"/>
       <c r="J445" s="7"/>
       <c r="K445" s="7"/>
@@ -7785,7 +7419,7 @@
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
       <c r="G446" s="6"/>
-      <c r="H446" s="12"/>
+      <c r="H446" s="9"/>
       <c r="I446" s="7"/>
       <c r="J446" s="7"/>
       <c r="K446" s="7"/>
@@ -7800,7 +7434,7 @@
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
       <c r="G447" s="4"/>
-      <c r="H447" s="12"/>
+      <c r="H447" s="9"/>
       <c r="I447" s="7"/>
       <c r="J447" s="7"/>
       <c r="K447" s="7"/>
@@ -7815,7 +7449,7 @@
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
       <c r="G448" s="6"/>
-      <c r="H448" s="12"/>
+      <c r="H448" s="9"/>
       <c r="I448" s="7"/>
       <c r="J448" s="7"/>
       <c r="K448" s="7"/>
@@ -7830,7 +7464,7 @@
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
       <c r="G449" s="6"/>
-      <c r="H449" s="12"/>
+      <c r="H449" s="9"/>
       <c r="I449" s="7"/>
       <c r="J449" s="7"/>
       <c r="K449" s="7"/>
@@ -7845,7 +7479,7 @@
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
       <c r="G450" s="6"/>
-      <c r="H450" s="12"/>
+      <c r="H450" s="9"/>
       <c r="I450" s="7"/>
       <c r="J450" s="7"/>
       <c r="K450" s="7"/>
@@ -7860,7 +7494,7 @@
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
       <c r="G451" s="6"/>
-      <c r="H451" s="12"/>
+      <c r="H451" s="9"/>
       <c r="I451" s="7"/>
       <c r="J451" s="7"/>
       <c r="K451" s="7"/>
@@ -7875,7 +7509,7 @@
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
       <c r="G452" s="6"/>
-      <c r="H452" s="12"/>
+      <c r="H452" s="9"/>
       <c r="I452" s="7"/>
       <c r="J452" s="7"/>
       <c r="K452" s="7"/>
@@ -7890,7 +7524,7 @@
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
       <c r="G453" s="6"/>
-      <c r="H453" s="12"/>
+      <c r="H453" s="9"/>
       <c r="I453" s="7"/>
       <c r="J453" s="7"/>
       <c r="K453" s="7"/>
@@ -7905,7 +7539,7 @@
       <c r="E454" s="7"/>
       <c r="F454" s="7"/>
       <c r="G454" s="6"/>
-      <c r="H454" s="12"/>
+      <c r="H454" s="9"/>
       <c r="I454" s="7"/>
       <c r="J454" s="7"/>
       <c r="K454" s="7"/>
@@ -7920,7 +7554,7 @@
       <c r="E455" s="7"/>
       <c r="F455" s="7"/>
       <c r="G455" s="4"/>
-      <c r="H455" s="12"/>
+      <c r="H455" s="9"/>
       <c r="I455" s="7"/>
       <c r="J455" s="7"/>
       <c r="K455" s="7"/>
@@ -7935,7 +7569,7 @@
       <c r="E456" s="7"/>
       <c r="F456" s="7"/>
       <c r="G456" s="4"/>
-      <c r="H456" s="12"/>
+      <c r="H456" s="9"/>
       <c r="I456" s="7"/>
       <c r="J456" s="7"/>
       <c r="K456" s="7"/>
@@ -7950,7 +7584,7 @@
       <c r="E457" s="7"/>
       <c r="F457" s="7"/>
       <c r="G457" s="4"/>
-      <c r="H457" s="12"/>
+      <c r="H457" s="9"/>
       <c r="I457" s="7"/>
       <c r="J457" s="7"/>
       <c r="K457" s="7"/>
@@ -7965,7 +7599,7 @@
       <c r="E458" s="7"/>
       <c r="F458" s="7"/>
       <c r="G458" s="4"/>
-      <c r="H458" s="12"/>
+      <c r="H458" s="9"/>
       <c r="I458" s="7"/>
       <c r="J458" s="7"/>
       <c r="K458" s="7"/>
@@ -7980,7 +7614,7 @@
       <c r="E459" s="7"/>
       <c r="F459" s="7"/>
       <c r="G459" s="6"/>
-      <c r="H459" s="12"/>
+      <c r="H459" s="9"/>
       <c r="I459" s="7"/>
       <c r="J459" s="7"/>
       <c r="K459" s="7"/>
@@ -7995,7 +7629,7 @@
       <c r="E460" s="7"/>
       <c r="F460" s="7"/>
       <c r="G460" s="4"/>
-      <c r="H460" s="12"/>
+      <c r="H460" s="9"/>
       <c r="I460" s="7"/>
       <c r="J460" s="7"/>
       <c r="K460" s="7"/>
@@ -8010,7 +7644,7 @@
       <c r="E461" s="7"/>
       <c r="F461" s="7"/>
       <c r="G461" s="6"/>
-      <c r="H461" s="12"/>
+      <c r="H461" s="9"/>
       <c r="I461" s="7"/>
       <c r="J461" s="7"/>
       <c r="K461" s="7"/>
@@ -8025,7 +7659,7 @@
       <c r="E462" s="7"/>
       <c r="F462" s="7"/>
       <c r="G462" s="4"/>
-      <c r="H462" s="12"/>
+      <c r="H462" s="9"/>
       <c r="I462" s="7"/>
       <c r="J462" s="7"/>
       <c r="K462" s="7"/>
@@ -8040,7 +7674,7 @@
       <c r="E463" s="7"/>
       <c r="F463" s="7"/>
       <c r="G463" s="4"/>
-      <c r="H463" s="12"/>
+      <c r="H463" s="9"/>
       <c r="I463" s="7"/>
       <c r="J463" s="7"/>
       <c r="K463" s="7"/>
@@ -8055,7 +7689,7 @@
       <c r="E464" s="7"/>
       <c r="F464" s="7"/>
       <c r="G464" s="4"/>
-      <c r="H464" s="12"/>
+      <c r="H464" s="9"/>
       <c r="I464" s="7"/>
       <c r="J464" s="7"/>
       <c r="K464" s="7"/>
@@ -8085,7 +7719,7 @@
       <c r="E466" s="7"/>
       <c r="F466" s="7"/>
       <c r="G466" s="6"/>
-      <c r="H466" s="12"/>
+      <c r="H466" s="9"/>
       <c r="I466" s="7"/>
       <c r="J466" s="7"/>
       <c r="K466" s="7"/>
@@ -8100,7 +7734,7 @@
       <c r="E467" s="7"/>
       <c r="F467" s="7"/>
       <c r="G467" s="6"/>
-      <c r="H467" s="12"/>
+      <c r="H467" s="9"/>
       <c r="I467" s="7"/>
       <c r="J467" s="7"/>
       <c r="K467" s="7"/>
@@ -8115,7 +7749,7 @@
       <c r="E468" s="7"/>
       <c r="F468" s="7"/>
       <c r="G468" s="6"/>
-      <c r="H468" s="12"/>
+      <c r="H468" s="9"/>
       <c r="I468" s="7"/>
       <c r="J468" s="7"/>
       <c r="K468" s="7"/>
@@ -8130,7 +7764,7 @@
       <c r="E469" s="7"/>
       <c r="F469" s="7"/>
       <c r="G469" s="4"/>
-      <c r="H469" s="12"/>
+      <c r="H469" s="9"/>
       <c r="I469" s="7"/>
       <c r="J469" s="7"/>
       <c r="K469" s="7"/>
@@ -8145,7 +7779,7 @@
       <c r="E470" s="7"/>
       <c r="F470" s="7"/>
       <c r="G470" s="4"/>
-      <c r="H470" s="12"/>
+      <c r="H470" s="9"/>
       <c r="I470" s="7"/>
       <c r="J470" s="7"/>
       <c r="K470" s="7"/>
@@ -8160,7 +7794,7 @@
       <c r="E471" s="7"/>
       <c r="F471" s="7"/>
       <c r="G471" s="4"/>
-      <c r="H471" s="12"/>
+      <c r="H471" s="9"/>
       <c r="I471" s="7"/>
       <c r="J471" s="7"/>
       <c r="K471" s="7"/>
@@ -8175,7 +7809,7 @@
       <c r="E472" s="7"/>
       <c r="F472" s="7"/>
       <c r="G472" s="4"/>
-      <c r="H472" s="12"/>
+      <c r="H472" s="9"/>
       <c r="I472" s="7"/>
       <c r="J472" s="7"/>
       <c r="K472" s="7"/>
@@ -8205,7 +7839,7 @@
       <c r="E474" s="7"/>
       <c r="F474" s="7"/>
       <c r="G474" s="4"/>
-      <c r="H474" s="12"/>
+      <c r="H474" s="9"/>
       <c r="I474" s="7"/>
       <c r="J474" s="7"/>
       <c r="K474" s="7"/>
@@ -8220,7 +7854,7 @@
       <c r="E475" s="7"/>
       <c r="F475" s="7"/>
       <c r="G475" s="4"/>
-      <c r="H475" s="12"/>
+      <c r="H475" s="9"/>
       <c r="I475" s="7"/>
       <c r="J475" s="7"/>
       <c r="K475" s="7"/>
@@ -8235,7 +7869,7 @@
       <c r="E476" s="7"/>
       <c r="F476" s="7"/>
       <c r="G476" s="4"/>
-      <c r="H476" s="12"/>
+      <c r="H476" s="9"/>
       <c r="I476" s="7"/>
       <c r="J476" s="7"/>
       <c r="K476" s="7"/>
@@ -8250,7 +7884,7 @@
       <c r="E477" s="7"/>
       <c r="F477" s="7"/>
       <c r="G477" s="4"/>
-      <c r="H477" s="12"/>
+      <c r="H477" s="9"/>
       <c r="I477" s="7"/>
       <c r="J477" s="7"/>
       <c r="K477" s="7"/>
@@ -8265,7 +7899,7 @@
       <c r="E478" s="7"/>
       <c r="F478" s="7"/>
       <c r="G478" s="4"/>
-      <c r="H478" s="12"/>
+      <c r="H478" s="9"/>
       <c r="I478" s="7"/>
       <c r="J478" s="7"/>
       <c r="K478" s="7"/>
@@ -8295,7 +7929,7 @@
       <c r="E480" s="7"/>
       <c r="F480" s="7"/>
       <c r="G480" s="6"/>
-      <c r="H480" s="12"/>
+      <c r="H480" s="9"/>
       <c r="I480" s="7"/>
       <c r="J480" s="7"/>
       <c r="K480" s="7"/>
@@ -8310,7 +7944,7 @@
       <c r="E481" s="7"/>
       <c r="F481" s="7"/>
       <c r="G481" s="6"/>
-      <c r="H481" s="12"/>
+      <c r="H481" s="9"/>
       <c r="I481" s="7"/>
       <c r="J481" s="7"/>
       <c r="K481" s="7"/>
@@ -8325,7 +7959,7 @@
       <c r="E482" s="7"/>
       <c r="F482" s="7"/>
       <c r="G482" s="6"/>
-      <c r="H482" s="12"/>
+      <c r="H482" s="9"/>
       <c r="I482" s="7"/>
       <c r="J482" s="7"/>
       <c r="K482" s="7"/>
@@ -8355,7 +7989,7 @@
       <c r="E484" s="7"/>
       <c r="F484" s="7"/>
       <c r="G484" s="6"/>
-      <c r="H484" s="12"/>
+      <c r="H484" s="9"/>
       <c r="I484" s="7"/>
       <c r="J484" s="7"/>
       <c r="K484" s="7"/>
@@ -8370,7 +8004,7 @@
       <c r="E485" s="7"/>
       <c r="F485" s="7"/>
       <c r="G485" s="4"/>
-      <c r="H485" s="12"/>
+      <c r="H485" s="9"/>
       <c r="I485" s="7"/>
       <c r="J485" s="7"/>
       <c r="K485" s="7"/>
@@ -8385,7 +8019,7 @@
       <c r="E486" s="7"/>
       <c r="F486" s="7"/>
       <c r="G486" s="6"/>
-      <c r="H486" s="12"/>
+      <c r="H486" s="9"/>
       <c r="I486" s="7"/>
       <c r="J486" s="7"/>
       <c r="K486" s="7"/>
@@ -8400,7 +8034,7 @@
       <c r="E487" s="7"/>
       <c r="F487" s="7"/>
       <c r="G487" s="6"/>
-      <c r="H487" s="12"/>
+      <c r="H487" s="9"/>
       <c r="I487" s="7"/>
       <c r="J487" s="7"/>
       <c r="K487" s="7"/>
@@ -8415,7 +8049,7 @@
       <c r="E488" s="7"/>
       <c r="F488" s="7"/>
       <c r="G488" s="6"/>
-      <c r="H488" s="12"/>
+      <c r="H488" s="9"/>
       <c r="I488" s="7"/>
       <c r="J488" s="7"/>
       <c r="K488" s="7"/>
@@ -8445,7 +8079,7 @@
       <c r="E490" s="7"/>
       <c r="F490" s="7"/>
       <c r="G490" s="6"/>
-      <c r="H490" s="12"/>
+      <c r="H490" s="9"/>
       <c r="I490" s="7"/>
       <c r="J490" s="7"/>
       <c r="K490" s="7"/>
@@ -8460,7 +8094,7 @@
       <c r="E491" s="7"/>
       <c r="F491" s="7"/>
       <c r="G491" s="6"/>
-      <c r="H491" s="12"/>
+      <c r="H491" s="9"/>
       <c r="I491" s="7"/>
       <c r="J491" s="7"/>
       <c r="K491" s="7"/>
@@ -8475,7 +8109,7 @@
       <c r="E492" s="7"/>
       <c r="F492" s="7"/>
       <c r="G492" s="6"/>
-      <c r="H492" s="12"/>
+      <c r="H492" s="9"/>
       <c r="I492" s="7"/>
       <c r="J492" s="7"/>
       <c r="K492" s="7"/>
@@ -8490,7 +8124,7 @@
       <c r="E493" s="7"/>
       <c r="F493" s="7"/>
       <c r="G493" s="6"/>
-      <c r="H493" s="12"/>
+      <c r="H493" s="9"/>
       <c r="I493" s="7"/>
       <c r="J493" s="7"/>
       <c r="K493" s="7"/>
@@ -8505,7 +8139,7 @@
       <c r="E494" s="7"/>
       <c r="F494" s="7"/>
       <c r="G494" s="6"/>
-      <c r="H494" s="12"/>
+      <c r="H494" s="9"/>
       <c r="I494" s="7"/>
       <c r="J494" s="7"/>
       <c r="K494" s="7"/>
@@ -8520,7 +8154,7 @@
       <c r="E495" s="7"/>
       <c r="F495" s="7"/>
       <c r="G495" s="6"/>
-      <c r="H495" s="12"/>
+      <c r="H495" s="9"/>
       <c r="I495" s="7"/>
       <c r="J495" s="7"/>
       <c r="K495" s="7"/>
@@ -8535,7 +8169,7 @@
       <c r="E496" s="7"/>
       <c r="F496" s="7"/>
       <c r="G496" s="6"/>
-      <c r="H496" s="12"/>
+      <c r="H496" s="9"/>
       <c r="I496" s="7"/>
       <c r="J496" s="7"/>
       <c r="K496" s="7"/>
@@ -8550,7 +8184,7 @@
       <c r="E497" s="7"/>
       <c r="F497" s="7"/>
       <c r="G497" s="6"/>
-      <c r="H497" s="12"/>
+      <c r="H497" s="9"/>
       <c r="I497" s="7"/>
       <c r="J497" s="7"/>
       <c r="K497" s="7"/>
@@ -8565,7 +8199,7 @@
       <c r="E498" s="7"/>
       <c r="F498" s="7"/>
       <c r="G498" s="6"/>
-      <c r="H498" s="12"/>
+      <c r="H498" s="9"/>
       <c r="I498" s="7"/>
       <c r="J498" s="7"/>
       <c r="K498" s="7"/>
@@ -8595,7 +8229,7 @@
       <c r="E500" s="7"/>
       <c r="F500" s="7"/>
       <c r="G500" s="6"/>
-      <c r="H500" s="12"/>
+      <c r="H500" s="9"/>
       <c r="I500" s="7"/>
       <c r="J500" s="7"/>
       <c r="K500" s="7"/>
@@ -8610,7 +8244,7 @@
       <c r="E501" s="7"/>
       <c r="F501" s="7"/>
       <c r="G501" s="6"/>
-      <c r="H501" s="12"/>
+      <c r="H501" s="9"/>
       <c r="I501" s="7"/>
       <c r="J501" s="7"/>
       <c r="K501" s="7"/>
@@ -8625,7 +8259,7 @@
       <c r="E502" s="7"/>
       <c r="F502" s="7"/>
       <c r="G502" s="4"/>
-      <c r="H502" s="12"/>
+      <c r="H502" s="9"/>
       <c r="I502" s="7"/>
       <c r="J502" s="7"/>
       <c r="K502" s="7"/>
@@ -8640,7 +8274,7 @@
       <c r="E503" s="7"/>
       <c r="F503" s="7"/>
       <c r="G503" s="6"/>
-      <c r="H503" s="12"/>
+      <c r="H503" s="9"/>
       <c r="I503" s="7"/>
       <c r="J503" s="7"/>
       <c r="K503" s="7"/>
@@ -8655,7 +8289,7 @@
       <c r="E504" s="7"/>
       <c r="F504" s="7"/>
       <c r="G504" s="6"/>
-      <c r="H504" s="12"/>
+      <c r="H504" s="9"/>
       <c r="I504" s="7"/>
       <c r="J504" s="7"/>
       <c r="K504" s="7"/>
@@ -8670,7 +8304,7 @@
       <c r="E505" s="7"/>
       <c r="F505" s="7"/>
       <c r="G505" s="6"/>
-      <c r="H505" s="12"/>
+      <c r="H505" s="9"/>
       <c r="I505" s="7"/>
       <c r="J505" s="7"/>
       <c r="K505" s="7"/>
@@ -8700,7 +8334,7 @@
       <c r="E507" s="7"/>
       <c r="F507" s="7"/>
       <c r="G507" s="6"/>
-      <c r="H507" s="12"/>
+      <c r="H507" s="9"/>
       <c r="I507" s="7"/>
       <c r="J507" s="7"/>
       <c r="K507" s="7"/>
@@ -8715,7 +8349,7 @@
       <c r="E508" s="7"/>
       <c r="F508" s="7"/>
       <c r="G508" s="6"/>
-      <c r="H508" s="12"/>
+      <c r="H508" s="9"/>
       <c r="I508" s="7"/>
       <c r="J508" s="7"/>
       <c r="K508" s="7"/>
@@ -8730,7 +8364,7 @@
       <c r="E509" s="7"/>
       <c r="F509" s="7"/>
       <c r="G509" s="6"/>
-      <c r="H509" s="12"/>
+      <c r="H509" s="9"/>
       <c r="I509" s="7"/>
       <c r="J509" s="7"/>
       <c r="K509" s="7"/>
@@ -8745,7 +8379,7 @@
       <c r="E510" s="7"/>
       <c r="F510" s="7"/>
       <c r="G510" s="6"/>
-      <c r="H510" s="12"/>
+      <c r="H510" s="9"/>
       <c r="I510" s="7"/>
       <c r="J510" s="7"/>
       <c r="K510" s="7"/>
@@ -8760,7 +8394,7 @@
       <c r="E511" s="7"/>
       <c r="F511" s="7"/>
       <c r="G511" s="6"/>
-      <c r="H511" s="12"/>
+      <c r="H511" s="9"/>
       <c r="I511" s="7"/>
       <c r="J511" s="7"/>
       <c r="K511" s="7"/>
@@ -8805,7 +8439,7 @@
       <c r="E514" s="7"/>
       <c r="F514" s="7"/>
       <c r="G514" s="4"/>
-      <c r="H514" s="12"/>
+      <c r="H514" s="9"/>
       <c r="I514" s="7"/>
       <c r="J514" s="7"/>
       <c r="K514" s="7"/>
@@ -8820,7 +8454,7 @@
       <c r="E515" s="7"/>
       <c r="F515" s="7"/>
       <c r="G515" s="4"/>
-      <c r="H515" s="12"/>
+      <c r="H515" s="9"/>
       <c r="I515" s="7"/>
       <c r="J515" s="7"/>
       <c r="K515" s="7"/>
@@ -8835,7 +8469,7 @@
       <c r="E516" s="7"/>
       <c r="F516" s="7"/>
       <c r="G516" s="4"/>
-      <c r="H516" s="12"/>
+      <c r="H516" s="9"/>
       <c r="I516" s="7"/>
       <c r="J516" s="7"/>
       <c r="K516" s="7"/>
@@ -8850,7 +8484,7 @@
       <c r="E517" s="7"/>
       <c r="F517" s="7"/>
       <c r="G517" s="4"/>
-      <c r="H517" s="12"/>
+      <c r="H517" s="9"/>
       <c r="I517" s="7"/>
       <c r="J517" s="7"/>
       <c r="K517" s="7"/>
@@ -8865,7 +8499,7 @@
       <c r="E518" s="7"/>
       <c r="F518" s="7"/>
       <c r="G518" s="6"/>
-      <c r="H518" s="12"/>
+      <c r="H518" s="9"/>
       <c r="I518" s="7"/>
       <c r="J518" s="7"/>
       <c r="K518" s="7"/>
@@ -8925,7 +8559,7 @@
       <c r="E522" s="7"/>
       <c r="F522" s="7"/>
       <c r="G522" s="4"/>
-      <c r="H522" s="12"/>
+      <c r="H522" s="9"/>
       <c r="I522" s="7"/>
       <c r="J522" s="7"/>
       <c r="K522" s="7"/>
@@ -8940,7 +8574,7 @@
       <c r="E523" s="7"/>
       <c r="F523" s="7"/>
       <c r="G523" s="6"/>
-      <c r="H523" s="12"/>
+      <c r="H523" s="9"/>
       <c r="I523" s="7"/>
       <c r="J523" s="7"/>
       <c r="K523" s="7"/>
@@ -8955,7 +8589,7 @@
       <c r="E524" s="7"/>
       <c r="F524" s="7"/>
       <c r="G524" s="6"/>
-      <c r="H524" s="12"/>
+      <c r="H524" s="9"/>
       <c r="I524" s="7"/>
       <c r="J524" s="7"/>
       <c r="K524" s="7"/>
@@ -8970,7 +8604,7 @@
       <c r="E525" s="7"/>
       <c r="F525" s="7"/>
       <c r="G525" s="6"/>
-      <c r="H525" s="12"/>
+      <c r="H525" s="9"/>
       <c r="I525" s="7"/>
       <c r="J525" s="7"/>
       <c r="K525" s="7"/>
@@ -8985,7 +8619,7 @@
       <c r="E526" s="7"/>
       <c r="F526" s="7"/>
       <c r="G526" s="6"/>
-      <c r="H526" s="12"/>
+      <c r="H526" s="9"/>
       <c r="I526" s="7"/>
       <c r="J526" s="7"/>
       <c r="K526" s="7"/>
@@ -9000,7 +8634,7 @@
       <c r="E527" s="7"/>
       <c r="F527" s="7"/>
       <c r="G527" s="6"/>
-      <c r="H527" s="12"/>
+      <c r="H527" s="9"/>
       <c r="I527" s="7"/>
       <c r="J527" s="7"/>
       <c r="K527" s="7"/>
@@ -9015,7 +8649,7 @@
       <c r="E528" s="7"/>
       <c r="F528" s="7"/>
       <c r="G528" s="6"/>
-      <c r="H528" s="12"/>
+      <c r="H528" s="9"/>
       <c r="I528" s="7"/>
       <c r="J528" s="7"/>
       <c r="K528" s="7"/>
@@ -9045,7 +8679,7 @@
       <c r="E530" s="7"/>
       <c r="F530" s="7"/>
       <c r="G530" s="4"/>
-      <c r="H530" s="12"/>
+      <c r="H530" s="9"/>
       <c r="I530" s="7"/>
       <c r="J530" s="7"/>
       <c r="K530" s="7"/>
@@ -9060,7 +8694,7 @@
       <c r="E531" s="7"/>
       <c r="F531" s="7"/>
       <c r="G531" s="4"/>
-      <c r="H531" s="12"/>
+      <c r="H531" s="9"/>
       <c r="I531" s="7"/>
       <c r="J531" s="7"/>
       <c r="K531" s="7"/>
@@ -9075,7 +8709,7 @@
       <c r="E532" s="7"/>
       <c r="F532" s="7"/>
       <c r="G532" s="6"/>
-      <c r="H532" s="12"/>
+      <c r="H532" s="9"/>
       <c r="I532" s="7"/>
       <c r="J532" s="7"/>
       <c r="K532" s="7"/>
@@ -9090,7 +8724,7 @@
       <c r="E533" s="7"/>
       <c r="F533" s="7"/>
       <c r="G533" s="6"/>
-      <c r="H533" s="12"/>
+      <c r="H533" s="9"/>
       <c r="I533" s="7"/>
       <c r="J533" s="7"/>
       <c r="K533" s="7"/>
@@ -9105,7 +8739,7 @@
       <c r="E534" s="7"/>
       <c r="F534" s="7"/>
       <c r="G534" s="6"/>
-      <c r="H534" s="12"/>
+      <c r="H534" s="9"/>
       <c r="I534" s="7"/>
       <c r="J534" s="7"/>
       <c r="K534" s="7"/>
@@ -12390,7 +12024,7 @@
       <c r="E753" s="7"/>
       <c r="F753" s="7"/>
       <c r="G753" s="6"/>
-      <c r="H753" s="12"/>
+      <c r="H753" s="9"/>
       <c r="I753" s="7"/>
       <c r="J753" s="7"/>
       <c r="K753" s="7"/>
@@ -12405,7 +12039,7 @@
       <c r="E754" s="7"/>
       <c r="F754" s="7"/>
       <c r="G754" s="6"/>
-      <c r="H754" s="12"/>
+      <c r="H754" s="9"/>
       <c r="I754" s="7"/>
       <c r="J754" s="7"/>
       <c r="K754" s="7"/>
@@ -12420,7 +12054,7 @@
       <c r="E755" s="7"/>
       <c r="F755" s="7"/>
       <c r="G755" s="4"/>
-      <c r="H755" s="12"/>
+      <c r="H755" s="9"/>
       <c r="I755" s="7"/>
       <c r="J755" s="7"/>
       <c r="K755" s="7"/>
@@ -12435,7 +12069,7 @@
       <c r="E756" s="7"/>
       <c r="F756" s="7"/>
       <c r="G756" s="4"/>
-      <c r="H756" s="12"/>
+      <c r="H756" s="9"/>
       <c r="I756" s="7"/>
       <c r="J756" s="7"/>
       <c r="K756" s="7"/>
@@ -12450,7 +12084,7 @@
       <c r="E757" s="7"/>
       <c r="F757" s="7"/>
       <c r="G757" s="6"/>
-      <c r="H757" s="12"/>
+      <c r="H757" s="9"/>
       <c r="I757" s="7"/>
       <c r="J757" s="7"/>
       <c r="K757" s="7"/>
@@ -12465,7 +12099,7 @@
       <c r="E758" s="7"/>
       <c r="F758" s="7"/>
       <c r="G758" s="6"/>
-      <c r="H758" s="12"/>
+      <c r="H758" s="9"/>
       <c r="I758" s="7"/>
       <c r="J758" s="7"/>
       <c r="K758" s="7"/>
@@ -12480,7 +12114,7 @@
       <c r="E759" s="7"/>
       <c r="F759" s="7"/>
       <c r="G759" s="6"/>
-      <c r="H759" s="12"/>
+      <c r="H759" s="9"/>
       <c r="I759" s="7"/>
       <c r="J759" s="7"/>
       <c r="K759" s="7"/>
@@ -12495,7 +12129,7 @@
       <c r="E760" s="7"/>
       <c r="F760" s="7"/>
       <c r="G760" s="4"/>
-      <c r="H760" s="12"/>
+      <c r="H760" s="9"/>
       <c r="I760" s="7"/>
       <c r="J760" s="7"/>
       <c r="K760" s="7"/>
@@ -12510,7 +12144,7 @@
       <c r="E761" s="7"/>
       <c r="F761" s="7"/>
       <c r="G761" s="6"/>
-      <c r="H761" s="12"/>
+      <c r="H761" s="9"/>
       <c r="I761" s="7"/>
       <c r="J761" s="7"/>
       <c r="K761" s="7"/>
@@ -12525,7 +12159,7 @@
       <c r="E762" s="7"/>
       <c r="F762" s="7"/>
       <c r="G762" s="4"/>
-      <c r="H762" s="12"/>
+      <c r="H762" s="9"/>
       <c r="I762" s="7"/>
       <c r="J762" s="7"/>
       <c r="K762" s="7"/>
@@ -12540,7 +12174,7 @@
       <c r="E763" s="7"/>
       <c r="F763" s="7"/>
       <c r="G763" s="4"/>
-      <c r="H763" s="12"/>
+      <c r="H763" s="9"/>
       <c r="I763" s="7"/>
       <c r="J763" s="7"/>
       <c r="K763" s="7"/>
@@ -12555,7 +12189,7 @@
       <c r="E764" s="7"/>
       <c r="F764" s="7"/>
       <c r="G764" s="4"/>
-      <c r="H764" s="12"/>
+      <c r="H764" s="9"/>
       <c r="I764" s="7"/>
       <c r="J764" s="7"/>
       <c r="K764" s="7"/>
@@ -12570,7 +12204,7 @@
       <c r="E765" s="7"/>
       <c r="F765" s="7"/>
       <c r="G765" s="4"/>
-      <c r="H765" s="12"/>
+      <c r="H765" s="9"/>
       <c r="I765" s="7"/>
       <c r="J765" s="7"/>
       <c r="K765" s="7"/>
@@ -12585,7 +12219,7 @@
       <c r="E766" s="7"/>
       <c r="F766" s="7"/>
       <c r="G766" s="6"/>
-      <c r="H766" s="12"/>
+      <c r="H766" s="9"/>
       <c r="I766" s="7"/>
       <c r="J766" s="7"/>
       <c r="K766" s="7"/>
@@ -12600,7 +12234,7 @@
       <c r="E767" s="7"/>
       <c r="F767" s="7"/>
       <c r="G767" s="6"/>
-      <c r="H767" s="12"/>
+      <c r="H767" s="9"/>
       <c r="I767" s="7"/>
       <c r="J767" s="7"/>
       <c r="K767" s="7"/>
@@ -12615,7 +12249,7 @@
       <c r="E768" s="7"/>
       <c r="F768" s="7"/>
       <c r="G768" s="6"/>
-      <c r="H768" s="12"/>
+      <c r="H768" s="9"/>
       <c r="I768" s="7"/>
       <c r="J768" s="7"/>
       <c r="K768" s="7"/>
@@ -12630,7 +12264,7 @@
       <c r="E769" s="7"/>
       <c r="F769" s="7"/>
       <c r="G769" s="6"/>
-      <c r="H769" s="12"/>
+      <c r="H769" s="9"/>
       <c r="I769" s="7"/>
       <c r="J769" s="7"/>
       <c r="K769" s="7"/>
@@ -12645,7 +12279,7 @@
       <c r="E770" s="7"/>
       <c r="F770" s="7"/>
       <c r="G770" s="6"/>
-      <c r="H770" s="12"/>
+      <c r="H770" s="9"/>
       <c r="I770" s="7"/>
       <c r="J770" s="7"/>
       <c r="K770" s="7"/>
@@ -12675,7 +12309,7 @@
       <c r="E772" s="7"/>
       <c r="F772" s="7"/>
       <c r="G772" s="6"/>
-      <c r="H772" s="12"/>
+      <c r="H772" s="9"/>
       <c r="I772" s="7"/>
       <c r="J772" s="7"/>
       <c r="K772" s="7"/>
@@ -12690,7 +12324,7 @@
       <c r="E773" s="7"/>
       <c r="F773" s="7"/>
       <c r="G773" s="6"/>
-      <c r="H773" s="12"/>
+      <c r="H773" s="9"/>
       <c r="I773" s="7"/>
       <c r="J773" s="7"/>
       <c r="K773" s="7"/>
@@ -12705,7 +12339,7 @@
       <c r="E774" s="7"/>
       <c r="F774" s="7"/>
       <c r="G774" s="6"/>
-      <c r="H774" s="12"/>
+      <c r="H774" s="9"/>
       <c r="I774" s="7"/>
       <c r="J774" s="7"/>
       <c r="K774" s="7"/>
@@ -12750,7 +12384,7 @@
       <c r="E777" s="7"/>
       <c r="F777" s="7"/>
       <c r="G777" s="6"/>
-      <c r="H777" s="12"/>
+      <c r="H777" s="9"/>
       <c r="I777" s="7"/>
       <c r="J777" s="7"/>
       <c r="K777" s="7"/>
@@ -12765,7 +12399,7 @@
       <c r="E778" s="7"/>
       <c r="F778" s="7"/>
       <c r="G778" s="6"/>
-      <c r="H778" s="12"/>
+      <c r="H778" s="9"/>
       <c r="I778" s="7"/>
       <c r="J778" s="7"/>
       <c r="K778" s="7"/>
@@ -13050,7 +12684,7 @@
       <c r="E797" s="7"/>
       <c r="F797" s="7"/>
       <c r="G797" s="6"/>
-      <c r="H797" s="12"/>
+      <c r="H797" s="9"/>
       <c r="I797" s="7"/>
       <c r="J797" s="7"/>
       <c r="K797" s="7"/>
@@ -13755,7 +13389,7 @@
       <c r="E844" s="7"/>
       <c r="F844" s="7"/>
       <c r="G844" s="6"/>
-      <c r="H844" s="12"/>
+      <c r="H844" s="9"/>
       <c r="I844" s="7"/>
       <c r="J844" s="7"/>
       <c r="K844" s="7"/>
@@ -13860,7 +13494,7 @@
       <c r="E851" s="7"/>
       <c r="F851" s="7"/>
       <c r="G851" s="6"/>
-      <c r="H851" s="12"/>
+      <c r="H851" s="9"/>
       <c r="I851" s="7"/>
       <c r="J851" s="7"/>
       <c r="K851" s="7"/>
@@ -13980,7 +13614,7 @@
       <c r="E859" s="7"/>
       <c r="F859" s="7"/>
       <c r="G859" s="6"/>
-      <c r="H859" s="12"/>
+      <c r="H859" s="9"/>
       <c r="I859" s="7"/>
       <c r="J859" s="7"/>
       <c r="K859" s="7"/>
@@ -13995,7 +13629,7 @@
       <c r="E860" s="7"/>
       <c r="F860" s="7"/>
       <c r="G860" s="6"/>
-      <c r="H860" s="12"/>
+      <c r="H860" s="9"/>
       <c r="I860" s="7"/>
       <c r="J860" s="7"/>
       <c r="K860" s="7"/>
@@ -14010,7 +13644,7 @@
       <c r="E861" s="7"/>
       <c r="F861" s="7"/>
       <c r="G861" s="6"/>
-      <c r="H861" s="12"/>
+      <c r="H861" s="9"/>
       <c r="I861" s="7"/>
       <c r="J861" s="7"/>
       <c r="K861" s="7"/>
@@ -14025,7 +13659,7 @@
       <c r="E862" s="7"/>
       <c r="F862" s="7"/>
       <c r="G862" s="6"/>
-      <c r="H862" s="12"/>
+      <c r="H862" s="9"/>
       <c r="I862" s="7"/>
       <c r="J862" s="7"/>
       <c r="K862" s="7"/>
@@ -14040,7 +13674,7 @@
       <c r="E863" s="7"/>
       <c r="F863" s="7"/>
       <c r="G863" s="6"/>
-      <c r="H863" s="12"/>
+      <c r="H863" s="9"/>
       <c r="I863" s="7"/>
       <c r="J863" s="7"/>
       <c r="K863" s="7"/>
@@ -14400,7 +14034,7 @@
       <c r="E887" s="7"/>
       <c r="F887" s="7"/>
       <c r="G887" s="6"/>
-      <c r="H887" s="12"/>
+      <c r="H887" s="9"/>
       <c r="I887" s="7"/>
       <c r="J887" s="7"/>
       <c r="K887" s="7"/>
@@ -14430,7 +14064,7 @@
       <c r="E889" s="7"/>
       <c r="F889" s="7"/>
       <c r="G889" s="6"/>
-      <c r="H889" s="12"/>
+      <c r="H889" s="9"/>
       <c r="I889" s="7"/>
       <c r="J889" s="7"/>
       <c r="K889" s="7"/>
@@ -14445,7 +14079,7 @@
       <c r="E890" s="7"/>
       <c r="F890" s="7"/>
       <c r="G890" s="6"/>
-      <c r="H890" s="12"/>
+      <c r="H890" s="9"/>
       <c r="I890" s="7"/>
       <c r="J890" s="7"/>
       <c r="K890" s="7"/>
@@ -14460,7 +14094,7 @@
       <c r="E891" s="7"/>
       <c r="F891" s="7"/>
       <c r="G891" s="6"/>
-      <c r="H891" s="12"/>
+      <c r="H891" s="9"/>
       <c r="I891" s="7"/>
       <c r="J891" s="7"/>
       <c r="K891" s="7"/>
@@ -14475,7 +14109,7 @@
       <c r="E892" s="7"/>
       <c r="F892" s="7"/>
       <c r="G892" s="4"/>
-      <c r="H892" s="12"/>
+      <c r="H892" s="9"/>
       <c r="I892" s="7"/>
       <c r="J892" s="7"/>
       <c r="K892" s="7"/>
@@ -14490,7 +14124,7 @@
       <c r="E893" s="7"/>
       <c r="F893" s="7"/>
       <c r="G893" s="6"/>
-      <c r="H893" s="12"/>
+      <c r="H893" s="9"/>
       <c r="I893" s="7"/>
       <c r="J893" s="7"/>
       <c r="K893" s="7"/>
@@ -14505,7 +14139,7 @@
       <c r="E894" s="7"/>
       <c r="F894" s="7"/>
       <c r="G894" s="6"/>
-      <c r="H894" s="12"/>
+      <c r="H894" s="9"/>
       <c r="I894" s="7"/>
       <c r="J894" s="7"/>
       <c r="K894" s="7"/>
@@ -14520,7 +14154,7 @@
       <c r="E895" s="7"/>
       <c r="F895" s="7"/>
       <c r="G895" s="6"/>
-      <c r="H895" s="12"/>
+      <c r="H895" s="9"/>
       <c r="I895" s="7"/>
       <c r="J895" s="7"/>
       <c r="K895" s="7"/>
@@ -14535,7 +14169,7 @@
       <c r="E896" s="7"/>
       <c r="F896" s="7"/>
       <c r="G896" s="6"/>
-      <c r="H896" s="12"/>
+      <c r="H896" s="9"/>
       <c r="I896" s="7"/>
       <c r="J896" s="7"/>
       <c r="K896" s="7"/>
@@ -16170,7 +15804,7 @@
       <c r="E1005" s="7"/>
       <c r="F1005" s="7"/>
       <c r="G1005" s="4"/>
-      <c r="H1005" s="12"/>
+      <c r="H1005" s="9"/>
       <c r="I1005" s="7"/>
       <c r="J1005" s="7"/>
       <c r="K1005" s="7"/>
@@ -16185,7 +15819,7 @@
       <c r="E1006" s="7"/>
       <c r="F1006" s="7"/>
       <c r="G1006" s="6"/>
-      <c r="H1006" s="12"/>
+      <c r="H1006" s="9"/>
       <c r="I1006" s="7"/>
       <c r="J1006" s="7"/>
       <c r="K1006" s="7"/>
@@ -16200,7 +15834,7 @@
       <c r="E1007" s="7"/>
       <c r="F1007" s="7"/>
       <c r="G1007" s="6"/>
-      <c r="H1007" s="12"/>
+      <c r="H1007" s="9"/>
       <c r="I1007" s="7"/>
       <c r="J1007" s="7"/>
       <c r="K1007" s="7"/>
@@ -16230,7 +15864,7 @@
       <c r="E1009" s="7"/>
       <c r="F1009" s="7"/>
       <c r="G1009" s="6"/>
-      <c r="H1009" s="12"/>
+      <c r="H1009" s="9"/>
       <c r="I1009" s="7"/>
       <c r="J1009" s="7"/>
       <c r="K1009" s="7"/>
@@ -16245,7 +15879,7 @@
       <c r="E1010" s="7"/>
       <c r="F1010" s="7"/>
       <c r="G1010" s="6"/>
-      <c r="H1010" s="12"/>
+      <c r="H1010" s="9"/>
       <c r="I1010" s="7"/>
       <c r="J1010" s="7"/>
       <c r="K1010" s="7"/>
@@ -16260,7 +15894,7 @@
       <c r="E1011" s="7"/>
       <c r="F1011" s="7"/>
       <c r="G1011" s="6"/>
-      <c r="H1011" s="12"/>
+      <c r="H1011" s="9"/>
       <c r="I1011" s="7"/>
       <c r="J1011" s="7"/>
       <c r="K1011" s="7"/>
@@ -16365,7 +15999,7 @@
       <c r="E1018" s="7"/>
       <c r="F1018" s="7"/>
       <c r="G1018" s="6"/>
-      <c r="H1018" s="12"/>
+      <c r="H1018" s="9"/>
       <c r="I1018" s="7"/>
       <c r="J1018" s="7"/>
       <c r="K1018" s="7"/>
@@ -16380,7 +16014,7 @@
       <c r="E1019" s="7"/>
       <c r="F1019" s="7"/>
       <c r="G1019" s="6"/>
-      <c r="H1019" s="12"/>
+      <c r="H1019" s="9"/>
       <c r="I1019" s="7"/>
       <c r="J1019" s="7"/>
       <c r="K1019" s="7"/>
@@ -16395,7 +16029,7 @@
       <c r="E1020" s="7"/>
       <c r="F1020" s="7"/>
       <c r="G1020" s="6"/>
-      <c r="H1020" s="12"/>
+      <c r="H1020" s="9"/>
       <c r="I1020" s="7"/>
       <c r="J1020" s="7"/>
       <c r="K1020" s="7"/>
@@ -16403,14 +16037,14 @@
       <c r="M1020" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1021" customHeight="1" ht="18.75">
-      <c r="A1021" s="10"/>
+      <c r="A1021" s="8"/>
       <c r="B1021" s="7"/>
       <c r="C1021" s="7"/>
       <c r="D1021" s="7"/>
       <c r="E1021" s="7"/>
       <c r="F1021" s="7"/>
-      <c r="G1021" s="12"/>
-      <c r="H1021" s="12"/>
+      <c r="G1021" s="9"/>
+      <c r="H1021" s="9"/>
       <c r="I1021" s="7"/>
       <c r="J1021" s="7"/>
       <c r="K1021" s="7"/>
@@ -16418,14 +16052,14 @@
       <c r="M1021" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1022" customHeight="1" ht="18.75">
-      <c r="A1022" s="10"/>
+      <c r="A1022" s="8"/>
       <c r="B1022" s="7"/>
       <c r="C1022" s="7"/>
       <c r="D1022" s="7"/>
       <c r="E1022" s="7"/>
       <c r="F1022" s="7"/>
-      <c r="G1022" s="12"/>
-      <c r="H1022" s="12"/>
+      <c r="G1022" s="9"/>
+      <c r="H1022" s="9"/>
       <c r="I1022" s="7"/>
       <c r="J1022" s="7"/>
       <c r="K1022" s="7"/>
@@ -16433,14 +16067,14 @@
       <c r="M1022" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1023" customHeight="1" ht="18.75">
-      <c r="A1023" s="10"/>
+      <c r="A1023" s="8"/>
       <c r="B1023" s="7"/>
       <c r="C1023" s="7"/>
       <c r="D1023" s="7"/>
       <c r="E1023" s="7"/>
       <c r="F1023" s="7"/>
-      <c r="G1023" s="12"/>
-      <c r="H1023" s="12"/>
+      <c r="G1023" s="9"/>
+      <c r="H1023" s="9"/>
       <c r="I1023" s="7"/>
       <c r="J1023" s="7"/>
       <c r="K1023" s="7"/>
@@ -16448,14 +16082,14 @@
       <c r="M1023" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1024" customHeight="1" ht="18.75">
-      <c r="A1024" s="10"/>
+      <c r="A1024" s="8"/>
       <c r="B1024" s="7"/>
       <c r="C1024" s="7"/>
       <c r="D1024" s="7"/>
       <c r="E1024" s="7"/>
       <c r="F1024" s="7"/>
-      <c r="G1024" s="12"/>
-      <c r="H1024" s="12"/>
+      <c r="G1024" s="9"/>
+      <c r="H1024" s="9"/>
       <c r="I1024" s="7"/>
       <c r="J1024" s="7"/>
       <c r="K1024" s="7"/>
@@ -16463,14 +16097,14 @@
       <c r="M1024" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1025" customHeight="1" ht="18.75">
-      <c r="A1025" s="10"/>
+      <c r="A1025" s="8"/>
       <c r="B1025" s="7"/>
       <c r="C1025" s="7"/>
       <c r="D1025" s="7"/>
       <c r="E1025" s="7"/>
       <c r="F1025" s="7"/>
-      <c r="G1025" s="12"/>
-      <c r="H1025" s="12"/>
+      <c r="G1025" s="9"/>
+      <c r="H1025" s="9"/>
       <c r="I1025" s="7"/>
       <c r="J1025" s="7"/>
       <c r="K1025" s="7"/>
@@ -16478,14 +16112,14 @@
       <c r="M1025" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1026" customHeight="1" ht="18.75">
-      <c r="A1026" s="10"/>
+      <c r="A1026" s="8"/>
       <c r="B1026" s="7"/>
       <c r="C1026" s="7"/>
       <c r="D1026" s="7"/>
       <c r="E1026" s="7"/>
       <c r="F1026" s="7"/>
-      <c r="G1026" s="12"/>
-      <c r="H1026" s="12"/>
+      <c r="G1026" s="9"/>
+      <c r="H1026" s="9"/>
       <c r="I1026" s="7"/>
       <c r="J1026" s="7"/>
       <c r="K1026" s="7"/>
@@ -16493,14 +16127,14 @@
       <c r="M1026" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1027" customHeight="1" ht="18.75">
-      <c r="A1027" s="10"/>
+      <c r="A1027" s="8"/>
       <c r="B1027" s="7"/>
       <c r="C1027" s="7"/>
       <c r="D1027" s="7"/>
       <c r="E1027" s="7"/>
       <c r="F1027" s="7"/>
-      <c r="G1027" s="12"/>
-      <c r="H1027" s="12"/>
+      <c r="G1027" s="9"/>
+      <c r="H1027" s="9"/>
       <c r="I1027" s="7"/>
       <c r="J1027" s="7"/>
       <c r="K1027" s="7"/>
@@ -16508,14 +16142,14 @@
       <c r="M1027" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1028" customHeight="1" ht="18.75">
-      <c r="A1028" s="10"/>
+      <c r="A1028" s="8"/>
       <c r="B1028" s="7"/>
       <c r="C1028" s="7"/>
       <c r="D1028" s="7"/>
       <c r="E1028" s="7"/>
       <c r="F1028" s="7"/>
-      <c r="G1028" s="12"/>
-      <c r="H1028" s="12"/>
+      <c r="G1028" s="9"/>
+      <c r="H1028" s="9"/>
       <c r="I1028" s="7"/>
       <c r="J1028" s="7"/>
       <c r="K1028" s="7"/>
@@ -16523,14 +16157,14 @@
       <c r="M1028" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1029" customHeight="1" ht="18.75">
-      <c r="A1029" s="10"/>
+      <c r="A1029" s="8"/>
       <c r="B1029" s="7"/>
       <c r="C1029" s="7"/>
       <c r="D1029" s="7"/>
       <c r="E1029" s="7"/>
       <c r="F1029" s="7"/>
-      <c r="G1029" s="12"/>
-      <c r="H1029" s="12"/>
+      <c r="G1029" s="9"/>
+      <c r="H1029" s="9"/>
       <c r="I1029" s="7"/>
       <c r="J1029" s="7"/>
       <c r="K1029" s="7"/>
@@ -16538,14 +16172,14 @@
       <c r="M1029" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1030" customHeight="1" ht="18.75">
-      <c r="A1030" s="10"/>
+      <c r="A1030" s="8"/>
       <c r="B1030" s="7"/>
       <c r="C1030" s="7"/>
       <c r="D1030" s="7"/>
       <c r="E1030" s="7"/>
       <c r="F1030" s="7"/>
-      <c r="G1030" s="12"/>
-      <c r="H1030" s="12"/>
+      <c r="G1030" s="9"/>
+      <c r="H1030" s="9"/>
       <c r="I1030" s="7"/>
       <c r="J1030" s="7"/>
       <c r="K1030" s="7"/>
@@ -16553,14 +16187,14 @@
       <c r="M1030" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1031" customHeight="1" ht="18.75">
-      <c r="A1031" s="10"/>
+      <c r="A1031" s="8"/>
       <c r="B1031" s="7"/>
       <c r="C1031" s="7"/>
       <c r="D1031" s="7"/>
       <c r="E1031" s="7"/>
       <c r="F1031" s="7"/>
-      <c r="G1031" s="12"/>
-      <c r="H1031" s="12"/>
+      <c r="G1031" s="9"/>
+      <c r="H1031" s="9"/>
       <c r="I1031" s="7"/>
       <c r="J1031" s="7"/>
       <c r="K1031" s="7"/>
@@ -16568,14 +16202,14 @@
       <c r="M1031" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1032" customHeight="1" ht="18.75">
-      <c r="A1032" s="10"/>
+      <c r="A1032" s="8"/>
       <c r="B1032" s="7"/>
       <c r="C1032" s="7"/>
       <c r="D1032" s="7"/>
       <c r="E1032" s="7"/>
       <c r="F1032" s="7"/>
-      <c r="G1032" s="12"/>
-      <c r="H1032" s="12"/>
+      <c r="G1032" s="9"/>
+      <c r="H1032" s="9"/>
       <c r="I1032" s="7"/>
       <c r="J1032" s="7"/>
       <c r="K1032" s="7"/>
@@ -16583,14 +16217,14 @@
       <c r="M1032" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1033" customHeight="1" ht="18.75">
-      <c r="A1033" s="10"/>
+      <c r="A1033" s="8"/>
       <c r="B1033" s="7"/>
       <c r="C1033" s="7"/>
       <c r="D1033" s="7"/>
       <c r="E1033" s="7"/>
       <c r="F1033" s="7"/>
-      <c r="G1033" s="12"/>
-      <c r="H1033" s="12"/>
+      <c r="G1033" s="9"/>
+      <c r="H1033" s="9"/>
       <c r="I1033" s="7"/>
       <c r="J1033" s="7"/>
       <c r="K1033" s="7"/>
@@ -16598,14 +16232,14 @@
       <c r="M1033" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1034" customHeight="1" ht="18.75">
-      <c r="A1034" s="10"/>
+      <c r="A1034" s="8"/>
       <c r="B1034" s="7"/>
       <c r="C1034" s="7"/>
       <c r="D1034" s="7"/>
       <c r="E1034" s="7"/>
       <c r="F1034" s="7"/>
-      <c r="G1034" s="12"/>
-      <c r="H1034" s="12"/>
+      <c r="G1034" s="9"/>
+      <c r="H1034" s="9"/>
       <c r="I1034" s="7"/>
       <c r="J1034" s="7"/>
       <c r="K1034" s="7"/>
@@ -16613,14 +16247,14 @@
       <c r="M1034" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="1035" customHeight="1" ht="18.75">
-      <c r="A1035" s="10"/>
+      <c r="A1035" s="8"/>
       <c r="B1035" s="7"/>
       <c r="C1035" s="7"/>
       <c r="D1035" s="7"/>
       <c r="E1035" s="7"/>
       <c r="F1035" s="7"/>
-      <c r="G1035" s="12"/>
-      <c r="H1035" s="12"/>
+      <c r="G1035" s="9"/>
+      <c r="H1035" s="9"/>
       <c r="I1035" s="7"/>
       <c r="J1035" s="7"/>
       <c r="K1035" s="7"/>
